--- a/database/colorsExcelSheet.xlsx
+++ b/database/colorsExcelSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>continent</t>
   </si>
@@ -145,24 +145,12 @@
     <t>American Samoa</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Australian Antarctic Claim</t>
   </si>
   <si>
     <t>Argentinian Antarctic Claim</t>
   </si>
   <si>
-    <t>Chilean Antarctic Claim</t>
-  </si>
-  <si>
-    <t>New Zealands Antarctic Claim</t>
-  </si>
-  <si>
     <t>Norwegian Antarctic Claim</t>
   </si>
   <si>
@@ -175,18 +163,6 @@
     <t>secondaryNotes</t>
   </si>
   <si>
-    <t>Colors from the unofficially proposed flag for the territory.</t>
-  </si>
-  <si>
-    <t>Colors from the unofficial flag of the Ross Dependancy.</t>
-  </si>
-  <si>
-    <t>Color used for the Afghanistan national cricket team.</t>
-  </si>
-  <si>
-    <t>Colors used in sports.</t>
-  </si>
-  <si>
     <t>#006230/#d30731/#fff</t>
   </si>
   <si>
@@ -332,6 +308,180 @@
   </si>
   <si>
     <t>hsl(197,100%,29%)/hsl(0,0%,0%)</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>#cd022b/#000/#FC0</t>
+  </si>
+  <si>
+    <t>rgb(205,2,43)/rgb(0,0,0)/rgb(255,204,0)</t>
+  </si>
+  <si>
+    <t>hsl(348,98%,41%)/hsl(0,0%,0%)/hsl(48,100%,50%)</t>
+  </si>
+  <si>
+    <t>Colorsfromtheunofficiallyproposedflagfortheterritory.</t>
+  </si>
+  <si>
+    <t>ColorsfromtheunofficialflagoftheRossDependancy.</t>
+  </si>
+  <si>
+    <t>ColorusedfortheAfghanistannationalcricketteam.</t>
+  </si>
+  <si>
+    <t>NorthAmerica</t>
+  </si>
+  <si>
+    <t>SouthAmerica</t>
+  </si>
+  <si>
+    <t>Colorsusedinsports.</t>
+  </si>
+  <si>
+    <t>#008651/#fdd116/#e7112d</t>
+  </si>
+  <si>
+    <t>rgb(0,134,81)/rgb(253,209,22)/rgb(231,17,45)</t>
+  </si>
+  <si>
+    <t>#76a8db/#000/#fcfcfc</t>
+  </si>
+  <si>
+    <t>rgb(118,168,291)/rgb(0,0,0)/rgb(252,252,252)</t>
+  </si>
+  <si>
+    <t>#ef2b2d/#009e49/#fed116</t>
+  </si>
+  <si>
+    <t>rgb(239,43,45)/rgb(0,158,73)/rgb(254,209,22)</t>
+  </si>
+  <si>
+    <t>#cf0921/#fff/#18b737</t>
+  </si>
+  <si>
+    <t>rgb(207,9,33)/rgb(255,255,255)/rgb(24,183,55)</t>
+  </si>
+  <si>
+    <t>#007a5e/#ce1126/#fcd116</t>
+  </si>
+  <si>
+    <t>rgb(0,122,94)/rgb(206,17,38)/rgb(252,209,22)</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>#013893/#fff/#ce1127/#ffc900</t>
+  </si>
+  <si>
+    <t>rgb(1,56,147)/rgb(255,255,255)/rgb(206,17,39)/rgb(255,201,0)</t>
+  </si>
+  <si>
+    <t>Chilean AntarcticClaim</t>
+  </si>
+  <si>
+    <t>NewZealands Antarctic Claim</t>
+  </si>
+  <si>
+    <t>hsl(156,100%,26%)/hsl(49,98%,54%)/hsl(352,86%,49%)</t>
+  </si>
+  <si>
+    <t>hsl(210,58%,66%)/hsl(0,0%,0%)/hsl(0,0%,99%)</t>
+  </si>
+  <si>
+    <t>hsl(359,86%,55%)/hsl(148,100%,31%)/hsl(48,99%,54%)</t>
+  </si>
+  <si>
+    <t>hsl(353,92%,42%)/hsl(0,0%,100%)/hsl(132,77%,41%)</t>
+  </si>
+  <si>
+    <t>hsl(166,100%,24%)/hsl(353,85%,44%)/hsl(49,97%,54%)</t>
+  </si>
+  <si>
+    <t>hsl(217,99%,29%)/hsl(0,0%,100%)/hsl(353,85%,44%)/hsl(47,100%,50%)</t>
+  </si>
+  <si>
+    <t>#08399c/#fff/#319400/#ffde00/#ef2900</t>
+  </si>
+  <si>
+    <t>rgb(8,57,156)/rgb(255,255,255)/rgb(49,148,0)/rgb(255,222,0)/rgb(239,41,0)</t>
+  </si>
+  <si>
+    <t>#002b7f/#fcd116/#ce1126</t>
+  </si>
+  <si>
+    <t>rgb(0,43,127)/rgb(252,209,22)/rgb(206,17,38)</t>
+  </si>
+  <si>
+    <t>#ffc718/#fff/#cf0921/#3775c5/3a8f30</t>
+  </si>
+  <si>
+    <t>rgb(255,199,24)/rgb(255,255,255)/rgb(207,9,33)/rgb(55,117,197)/rgb(58,143,48)</t>
+  </si>
+  <si>
+    <t>hsl(220,90%,32%)/hsl(0,0%,100%)/hsl(100,100%,29%)/hsl(52,100%,50%)/hsl(10,100%,47%)</t>
+  </si>
+  <si>
+    <t>hsl(220,100%,25%)/hsl(49,97%,54%)/hsl(353,85%,44%)</t>
+  </si>
+  <si>
+    <t>hsl(45,100%,55%)/hsl(0,0%,100%)/hsl(353,92%,42%)/hsl(214,56%,49%)/hsl(114,50%,37%)</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,9 +1330,9 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50.85546875" bestFit="1" customWidth="1"/>
@@ -1222,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,337 +1389,567 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="I14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/database/colorsExcelSheet.xlsx
+++ b/database/colorsExcelSheet.xlsx
@@ -436,9 +436,6 @@
     <t>Chilean AntarcticClaim</t>
   </si>
   <si>
-    <t>NewZealands Antarctic Claim</t>
-  </si>
-  <si>
     <t>hsl(156,100%,26%)/hsl(49,98%,54%)/hsl(352,86%,49%)</t>
   </si>
   <si>
@@ -482,6 +479,9 @@
   </si>
   <si>
     <t>hsl(45,100%,55%)/hsl(0,0%,100%)/hsl(353,92%,42%)/hsl(214,56%,49%)/hsl(114,50%,37%)</t>
+  </si>
+  <si>
+    <t>New Zealands Antarctic Claim</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,7 @@
         <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1573,13 +1573,13 @@
         <v>113</v>
       </c>
       <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
         <v>147</v>
       </c>
-      <c r="F10" t="s">
-        <v>148</v>
-      </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1596,13 +1596,13 @@
         <v>114</v>
       </c>
       <c r="E11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s">
         <v>149</v>
       </c>
-      <c r="F11" t="s">
-        <v>150</v>
-      </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,13 +1619,13 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
         <v>151</v>
       </c>
-      <c r="F12" t="s">
-        <v>152</v>
-      </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>

--- a/database/colorsExcelSheet.xlsx
+++ b/database/colorsExcelSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="1779">
   <si>
     <t>continent</t>
   </si>
@@ -2671,9 +2671,6 @@
     <t>hsl(0,0%,70%)</t>
   </si>
   <si>
-    <t>Colors used in motor racing.</t>
-  </si>
-  <si>
     <t>#cf0921/#fcd20f/#006b3d/#000000</t>
   </si>
   <si>
@@ -2911,9 +2908,6 @@
     <t>hsl(135,68%,37%)/hsl(0,0%,100%)/hsl(0,100%,43%)</t>
   </si>
   <si>
-    <t>Colors sometimes used for the Tawhid emblem.</t>
-  </si>
-  <si>
     <t>#cf0921/#ffffff/#000000/#007a3b</t>
   </si>
   <si>
@@ -2941,9 +2935,6 @@
     <t>hsl(236,55%,31%)</t>
   </si>
   <si>
-    <t>Colors relate to St.Patrick.</t>
-  </si>
-  <si>
     <t>#d00c27/#ffffff/#f9de0f</t>
   </si>
   <si>
@@ -3199,9 +3190,6 @@
     <t>hsl(48,100%,50%)/hsl(0,0%,0%)</t>
   </si>
   <si>
-    <t>Colors often used for the insignia on flags.</t>
-  </si>
-  <si>
     <t>Color of the national insignia often used on the flag.</t>
   </si>
   <si>
@@ -3931,9 +3919,6 @@
     <t>hsl(129,100%,12%)</t>
   </si>
   <si>
-    <t>Colors from the standard of the president of Sierra Leone.</t>
-  </si>
-  <si>
     <t>#001f7e</t>
   </si>
   <si>
@@ -4072,15 +4057,9 @@
     <t>hsl(224,64%,23%)</t>
   </si>
   <si>
-    <t>Colors used by the Afghanistan national cricket team.</t>
-  </si>
-  <si>
     <t>Colors used by the Pakistan national cricket team.</t>
   </si>
   <si>
-    <t>Colors used by the Sri Lanka national cricket team.</t>
-  </si>
-  <si>
     <t>Wales</t>
   </si>
   <si>
@@ -4156,9 +4135,6 @@
     <t>hsl(177,46%,48%)</t>
   </si>
   <si>
-    <t>Colors used in university sports.</t>
-  </si>
-  <si>
     <t>#cd0000/#ffffff/#006600/#f8c500</t>
   </si>
   <si>
@@ -4288,9 +4264,6 @@
     <t>hsl(39,96%,56%)</t>
   </si>
   <si>
-    <t>Colors from the standard of the president of Turkmenistan.</t>
-  </si>
-  <si>
     <t>#002468/#cf0921/#ffffff/#fcd20f</t>
   </si>
   <si>
@@ -5327,6 +5300,57 @@
   </si>
   <si>
     <t>cornflowerblue/red/black</t>
+  </si>
+  <si>
+    <t>#ffffff/#df0807/#001c69/#fff700</t>
+  </si>
+  <si>
+    <t>rgb(255,255,255)/rgb(223,8,7)/rgb(0,28,105)/rgb(255,247,0)</t>
+  </si>
+  <si>
+    <t>hsl(0,0%,100%)/hsl(0,94%,45%)/hsl(224,100%,21%)/hsl(58,100%,50%)</t>
+  </si>
+  <si>
+    <t>white/red/midnightblue/yellow</t>
+  </si>
+  <si>
+    <t>Color used by the Afghanistan national cricket team.</t>
+  </si>
+  <si>
+    <t>Color used in football.</t>
+  </si>
+  <si>
+    <t>Color used in sports.</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Color often used for the insignia on flags.</t>
+  </si>
+  <si>
+    <t>Color used in motor racing.</t>
+  </si>
+  <si>
+    <t>Color relate to St.Patrick.</t>
+  </si>
+  <si>
+    <t>Color sometimes used for the Tawhid emblem.</t>
+  </si>
+  <si>
+    <t>Color used for the insignia on flags.</t>
+  </si>
+  <si>
+    <t>Color from the standard of the president of Sierra Leone.</t>
+  </si>
+  <si>
+    <t>Color used by the Sri Lanka national cricket team.</t>
+  </si>
+  <si>
+    <t>Color used in university sports.</t>
+  </si>
+  <si>
+    <t>Color from the standard of the president of Turkmenistan.</t>
   </si>
 </sst>
 </file>
@@ -6172,9 +6196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,7 +6242,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
@@ -6230,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="M1" t="s">
         <v>47</v>
@@ -6259,7 +6283,7 @@
         <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6271,10 +6295,10 @@
         <v>76</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="M2" t="s">
-        <v>1352</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6286,7 +6310,7 @@
         <v>EU</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>332</v>
@@ -6301,7 +6325,7 @@
         <v>597</v>
       </c>
       <c r="H3" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6327,7 +6351,7 @@
         <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6353,7 +6377,7 @@
         <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6379,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,7 +6430,7 @@
         <v>624</v>
       </c>
       <c r="H7" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6432,7 +6456,7 @@
         <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6458,7 +6482,7 @@
         <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6485,7 +6509,7 @@
         <v>591</v>
       </c>
       <c r="H10" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I10" t="s">
         <v>607</v>
@@ -6497,7 +6521,7 @@
         <v>593</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="M10" t="s">
         <v>594</v>
@@ -6526,7 +6550,7 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I11" t="s">
         <v>609</v>
@@ -6538,7 +6562,7 @@
         <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="M11" t="s">
         <v>587</v>
@@ -6567,7 +6591,7 @@
         <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,7 +6617,7 @@
         <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6619,7 +6643,7 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6645,7 +6669,7 @@
         <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="I15" t="s">
         <v>614</v>
@@ -6657,7 +6681,7 @@
         <v>72</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="M15" t="s">
         <v>588</v>
@@ -6686,7 +6710,7 @@
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6703,16 +6727,16 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>616</v>
+        <v>1762</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>1763</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>1764</v>
       </c>
       <c r="H17" t="s">
-        <v>1536</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6739,7 +6763,7 @@
         <v>627</v>
       </c>
       <c r="H18" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -6765,7 +6789,7 @@
         <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="I19" t="s">
         <v>600</v>
@@ -6777,7 +6801,7 @@
         <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="M19" t="s">
         <v>589</v>
@@ -6788,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>IF(A20="Asia","AS",IF(A20="Europe","EU",IF(A20="Africa","AF",IF(A20="Oceania","OC",IF(A20="North America","NA",IF(A20="Antarctica","AN",IF(A20="South America","SA",FALSE)))))))</f>
+        <f t="shared" ref="B20:B31" si="0">IF(A20="Asia","AS",IF(A20="Europe","EU",IF(A20="Africa","AF",IF(A20="Oceania","OC",IF(A20="North America","NA",IF(A20="Antarctica","AN",IF(A20="South America","SA",FALSE)))))))</f>
         <v>AS</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6807,7 +6831,7 @@
         <v>642</v>
       </c>
       <c r="H20" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6815,7 +6839,7 @@
         <v>567</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>IF(A21="Asia","AS",IF(A21="Europe","EU",IF(A21="Africa","AF",IF(A21="Oceania","OC",IF(A21="North America","NA",IF(A21="Antarctica","AN",IF(A21="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6834,7 +6858,7 @@
         <v>645</v>
       </c>
       <c r="H21" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="I21" t="s">
         <v>646</v>
@@ -6846,7 +6870,7 @@
         <v>648</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="M21" t="s">
         <v>649</v>
@@ -6857,7 +6881,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>IF(A22="Asia","AS",IF(A22="Europe","EU",IF(A22="Africa","AF",IF(A22="Oceania","OC",IF(A22="North America","NA",IF(A22="Antarctica","AN",IF(A22="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>OC</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6876,7 +6900,7 @@
         <v>652</v>
       </c>
       <c r="H22" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="I22" t="s">
         <v>635</v>
@@ -6888,7 +6912,7 @@
         <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="M22" t="s">
         <v>653</v>
@@ -6899,7 +6923,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>IF(A23="Asia","AS",IF(A23="Europe","EU",IF(A23="Africa","AF",IF(A23="Oceania","OC",IF(A23="North America","NA",IF(A23="Antarctica","AN",IF(A23="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>EU</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6918,7 +6942,7 @@
         <v>656</v>
       </c>
       <c r="H23" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -6926,7 +6950,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>IF(A24="Asia","AS",IF(A24="Europe","EU",IF(A24="Africa","AF",IF(A24="Oceania","OC",IF(A24="North America","NA",IF(A24="Antarctica","AN",IF(A24="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>AS</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6945,7 +6969,7 @@
         <v>659</v>
       </c>
       <c r="H24" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -6953,7 +6977,7 @@
         <v>567</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>IF(A25="Asia","AS",IF(A25="Europe","EU",IF(A25="Africa","AF",IF(A25="Oceania","OC",IF(A25="North America","NA",IF(A25="Antarctica","AN",IF(A25="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6972,7 +6996,7 @@
         <v>662</v>
       </c>
       <c r="H25" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -6980,7 +7004,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>IF(A26="Asia","AS",IF(A26="Europe","EU",IF(A26="Africa","AF",IF(A26="Oceania","OC",IF(A26="North America","NA",IF(A26="Antarctica","AN",IF(A26="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>AS</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6999,7 +7023,7 @@
         <v>665</v>
       </c>
       <c r="H26" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7007,7 +7031,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>IF(A27="Asia","AS",IF(A27="Europe","EU",IF(A27="Africa","AF",IF(A27="Oceania","OC",IF(A27="North America","NA",IF(A27="Antarctica","AN",IF(A27="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>AS</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -7026,7 +7050,7 @@
         <v>668</v>
       </c>
       <c r="H27" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="I27" t="s">
         <v>616</v>
@@ -7038,10 +7062,10 @@
         <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="M27" t="s">
-        <v>669</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7049,7 +7073,7 @@
         <v>567</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f>IF(A28="Asia","AS",IF(A28="Europe","EU",IF(A28="Africa","AF",IF(A28="Oceania","OC",IF(A28="North America","NA",IF(A28="Antarctica","AN",IF(A28="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -7068,7 +7092,7 @@
         <v>672</v>
       </c>
       <c r="H28" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -7076,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>IF(A29="Asia","AS",IF(A29="Europe","EU",IF(A29="Africa","AF",IF(A29="Oceania","OC",IF(A29="North America","NA",IF(A29="Antarctica","AN",IF(A29="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>EU</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -7095,7 +7119,7 @@
         <v>675</v>
       </c>
       <c r="H29" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="I29" t="s">
         <v>676</v>
@@ -7107,10 +7131,10 @@
         <v>678</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="M29" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7118,7 +7142,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>IF(A30="Asia","AS",IF(A30="Europe","EU",IF(A30="Africa","AF",IF(A30="Oceania","OC",IF(A30="North America","NA",IF(A30="Antarctica","AN",IF(A30="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>EU</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -7137,7 +7161,7 @@
         <v>681</v>
       </c>
       <c r="H30" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="I30" t="s">
         <v>682</v>
@@ -7149,7 +7173,7 @@
         <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="M30" t="s">
         <v>685</v>
@@ -7160,7 +7184,7 @@
         <v>567</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>IF(A31="Asia","AS",IF(A31="Europe","EU",IF(A31="Africa","AF",IF(A31="Oceania","OC",IF(A31="North America","NA",IF(A31="Antarctica","AN",IF(A31="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="0"/>
         <v>NA</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -7179,7 +7203,7 @@
         <v>688</v>
       </c>
       <c r="H31" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="I31" t="s">
         <v>689</v>
@@ -7191,10 +7215,10 @@
         <v>691</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="M31" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7220,7 +7244,7 @@
         <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -7247,7 +7271,7 @@
         <v>694</v>
       </c>
       <c r="H33" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="I33" t="s">
         <v>695</v>
@@ -7259,10 +7283,10 @@
         <v>697</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -7289,7 +7313,7 @@
         <v>700</v>
       </c>
       <c r="H34" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="I34" t="s">
         <v>701</v>
@@ -7301,10 +7325,10 @@
         <v>703</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>669</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -7331,7 +7355,7 @@
         <v>706</v>
       </c>
       <c r="H35" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>616</v>
@@ -7343,10 +7367,10 @@
         <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -7373,7 +7397,7 @@
         <v>710</v>
       </c>
       <c r="H36" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -7400,7 +7424,7 @@
         <v>713</v>
       </c>
       <c r="H37" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="I37" t="s">
         <v>714</v>
@@ -7412,7 +7436,7 @@
         <v>716</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="M37" t="s">
         <v>717</v>
@@ -7441,7 +7465,7 @@
         <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -7468,7 +7492,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -7495,7 +7519,7 @@
         <v>720</v>
       </c>
       <c r="H40" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="I40" t="s">
         <v>721</v>
@@ -7507,7 +7531,7 @@
         <v>723</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="M40" t="s">
         <v>724</v>
@@ -7537,7 +7561,7 @@
         <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -7564,7 +7588,7 @@
         <v>727</v>
       </c>
       <c r="H42" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="I42" t="s">
         <v>728</v>
@@ -7576,7 +7600,7 @@
         <v>730</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>669</v>
@@ -7606,7 +7630,7 @@
         <v>733</v>
       </c>
       <c r="H43" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -7632,7 +7656,7 @@
         <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -7658,7 +7682,7 @@
         <v>117</v>
       </c>
       <c r="H45" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -7684,7 +7708,7 @@
         <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -7711,7 +7735,7 @@
         <v>736</v>
       </c>
       <c r="H47" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="I47" t="s">
         <v>737</v>
@@ -7722,8 +7746,11 @@
       <c r="K47" t="s">
         <v>739</v>
       </c>
+      <c r="L47" s="7" t="s">
+        <v>1769</v>
+      </c>
       <c r="M47" s="7" t="s">
-        <v>669</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -7749,7 +7776,7 @@
         <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -7776,7 +7803,7 @@
         <v>742</v>
       </c>
       <c r="H49" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>737</v>
@@ -7787,8 +7814,11 @@
       <c r="K49" s="7" t="s">
         <v>739</v>
       </c>
+      <c r="L49" s="7" t="s">
+        <v>1769</v>
+      </c>
       <c r="M49" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -7815,7 +7845,7 @@
         <v>745</v>
       </c>
       <c r="H50" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -7841,7 +7871,7 @@
         <v>124</v>
       </c>
       <c r="H51" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -7867,7 +7897,7 @@
         <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -7894,7 +7924,7 @@
         <v>748</v>
       </c>
       <c r="H53" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -7921,7 +7951,7 @@
         <v>751</v>
       </c>
       <c r="H54" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="I54" t="s">
         <v>752</v>
@@ -7933,7 +7963,7 @@
         <v>754</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>589</v>
@@ -7963,7 +7993,7 @@
         <v>757</v>
       </c>
       <c r="H55" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -7990,7 +8020,7 @@
         <v>760</v>
       </c>
       <c r="H56" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -8017,7 +8047,7 @@
         <v>763</v>
       </c>
       <c r="H57" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="I57" t="s">
         <v>764</v>
@@ -8029,7 +8059,7 @@
         <v>766</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>589</v>
@@ -8058,7 +8088,7 @@
         <v>126</v>
       </c>
       <c r="H58" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8066,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="7" t="str">
-        <f>IF(A59="Asia","AS",IF(A59="Europe","EU",IF(A59="Africa","AF",IF(A59="Oceania","OC",IF(A59="North America","NA",IF(A59="Antarctica","AN",IF(A59="South America","SA",FALSE)))))))</f>
+        <f t="shared" ref="B59:B122" si="1">IF(A59="Asia","AS",IF(A59="Europe","EU",IF(A59="Africa","AF",IF(A59="Oceania","OC",IF(A59="North America","NA",IF(A59="Antarctica","AN",IF(A59="South America","SA",FALSE)))))))</f>
         <v>AF</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -8085,7 +8115,7 @@
         <v>631</v>
       </c>
       <c r="H59" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -8093,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="7" t="str">
-        <f>IF(A60="Asia","AS",IF(A60="Europe","EU",IF(A60="Africa","AF",IF(A60="Oceania","OC",IF(A60="North America","NA",IF(A60="Antarctica","AN",IF(A60="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -8112,7 +8142,7 @@
         <v>634</v>
       </c>
       <c r="H60" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -8120,7 +8150,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="7" t="str">
-        <f>IF(A61="Asia","AS",IF(A61="Europe","EU",IF(A61="Africa","AF",IF(A61="Oceania","OC",IF(A61="North America","NA",IF(A61="Antarctica","AN",IF(A61="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>OC</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -8139,7 +8169,7 @@
         <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I61" t="s">
         <v>636</v>
@@ -8151,7 +8181,7 @@
         <v>638</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="M61" t="s">
         <v>639</v>
@@ -8162,7 +8192,7 @@
         <v>567</v>
       </c>
       <c r="B62" s="7" t="str">
-        <f>IF(A62="Asia","AS",IF(A62="Europe","EU",IF(A62="Africa","AF",IF(A62="Oceania","OC",IF(A62="North America","NA",IF(A62="Antarctica","AN",IF(A62="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -8181,7 +8211,7 @@
         <v>769</v>
       </c>
       <c r="H62" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>737</v>
@@ -8192,8 +8222,11 @@
       <c r="K62" s="7" t="s">
         <v>739</v>
       </c>
+      <c r="L62" s="7" t="s">
+        <v>1769</v>
+      </c>
       <c r="M62" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -8201,7 +8234,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="7" t="str">
-        <f>IF(A63="Asia","AS",IF(A63="Europe","EU",IF(A63="Africa","AF",IF(A63="Oceania","OC",IF(A63="North America","NA",IF(A63="Antarctica","AN",IF(A63="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -8220,7 +8253,7 @@
         <v>773</v>
       </c>
       <c r="H63" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -8228,7 +8261,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="7" t="str">
-        <f>IF(A64="Asia","AS",IF(A64="Europe","EU",IF(A64="Africa","AF",IF(A64="Oceania","OC",IF(A64="North America","NA",IF(A64="Antarctica","AN",IF(A64="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -8247,7 +8280,7 @@
         <v>776</v>
       </c>
       <c r="H64" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -8255,7 +8288,7 @@
         <v>567</v>
       </c>
       <c r="B65" s="7" t="str">
-        <f>IF(A65="Asia","AS",IF(A65="Europe","EU",IF(A65="Africa","AF",IF(A65="Oceania","OC",IF(A65="North America","NA",IF(A65="Antarctica","AN",IF(A65="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -8274,7 +8307,7 @@
         <v>779</v>
       </c>
       <c r="H65" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="I65" t="s">
         <v>780</v>
@@ -8286,7 +8319,7 @@
         <v>782</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="M65" t="s">
         <v>783</v>
@@ -8297,7 +8330,7 @@
         <v>567</v>
       </c>
       <c r="B66" s="7" t="str">
-        <f>IF(A66="Asia","AS",IF(A66="Europe","EU",IF(A66="Africa","AF",IF(A66="Oceania","OC",IF(A66="North America","NA",IF(A66="Antarctica","AN",IF(A66="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -8316,7 +8349,7 @@
         <v>787</v>
       </c>
       <c r="H66" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>646</v>
@@ -8328,7 +8361,7 @@
         <v>648</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>649</v>
@@ -8339,7 +8372,7 @@
         <v>15</v>
       </c>
       <c r="B67" s="7" t="str">
-        <f>IF(A67="Asia","AS",IF(A67="Europe","EU",IF(A67="Africa","AF",IF(A67="Oceania","OC",IF(A67="North America","NA",IF(A67="Antarctica","AN",IF(A67="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -8358,7 +8391,7 @@
         <v>790</v>
       </c>
       <c r="H67" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I67" t="s">
         <v>791</v>
@@ -8370,7 +8403,7 @@
         <v>793</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="M67" t="s">
         <v>794</v>
@@ -8381,7 +8414,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="7" t="str">
-        <f>IF(A68="Asia","AS",IF(A68="Europe","EU",IF(A68="Africa","AF",IF(A68="Oceania","OC",IF(A68="North America","NA",IF(A68="Antarctica","AN",IF(A68="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -8400,7 +8433,7 @@
         <v>797</v>
       </c>
       <c r="H68" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -8408,7 +8441,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="7" t="str">
-        <f>IF(A69="Asia","AS",IF(A69="Europe","EU",IF(A69="Africa","AF",IF(A69="Oceania","OC",IF(A69="North America","NA",IF(A69="Antarctica","AN",IF(A69="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -8427,7 +8460,7 @@
         <v>800</v>
       </c>
       <c r="H69" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -8435,7 +8468,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="7" t="str">
-        <f>IF(A70="Asia","AS",IF(A70="Europe","EU",IF(A70="Africa","AF",IF(A70="Oceania","OC",IF(A70="North America","NA",IF(A70="Antarctica","AN",IF(A70="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -8454,7 +8487,7 @@
         <v>803</v>
       </c>
       <c r="H70" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -8462,7 +8495,7 @@
         <v>567</v>
       </c>
       <c r="B71" s="7" t="str">
-        <f>IF(A71="Asia","AS",IF(A71="Europe","EU",IF(A71="Africa","AF",IF(A71="Oceania","OC",IF(A71="North America","NA",IF(A71="Antarctica","AN",IF(A71="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -8481,7 +8514,7 @@
         <v>806</v>
       </c>
       <c r="H71" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="I71" t="s">
         <v>807</v>
@@ -8493,10 +8526,10 @@
         <v>809</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -8504,7 +8537,7 @@
         <v>567</v>
       </c>
       <c r="B72" s="7" t="str">
-        <f>IF(A72="Asia","AS",IF(A72="Europe","EU",IF(A72="Africa","AF",IF(A72="Oceania","OC",IF(A72="North America","NA",IF(A72="Antarctica","AN",IF(A72="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -8523,7 +8556,7 @@
         <v>812</v>
       </c>
       <c r="H72" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -8531,7 +8564,7 @@
         <v>565</v>
       </c>
       <c r="B73" s="7" t="str">
-        <f>IF(A73="Asia","AS",IF(A73="Europe","EU",IF(A73="Africa","AF",IF(A73="Oceania","OC",IF(A73="North America","NA",IF(A73="Antarctica","AN",IF(A73="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>SA</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -8550,7 +8583,7 @@
         <v>815</v>
       </c>
       <c r="H73" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="I73" t="s">
         <v>816</v>
@@ -8562,10 +8595,10 @@
         <v>818</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -8573,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="7" t="str">
-        <f>IF(A74="Asia","AS",IF(A74="Europe","EU",IF(A74="Africa","AF",IF(A74="Oceania","OC",IF(A74="North America","NA",IF(A74="Antarctica","AN",IF(A74="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -8592,7 +8625,7 @@
         <v>821</v>
       </c>
       <c r="H74" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I74" t="s">
         <v>822</v>
@@ -8604,10 +8637,10 @@
         <v>824</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="M74" t="s">
-        <v>1061</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -8615,7 +8648,7 @@
         <v>567</v>
       </c>
       <c r="B75" s="7" t="str">
-        <f>IF(A75="Asia","AS",IF(A75="Europe","EU",IF(A75="Africa","AF",IF(A75="Oceania","OC",IF(A75="North America","NA",IF(A75="Antarctica","AN",IF(A75="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -8634,7 +8667,7 @@
         <v>827</v>
       </c>
       <c r="H75" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8642,41 +8675,41 @@
         <v>7</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f>IF(A76="Asia","AS",IF(A76="Europe","EU",IF(A76="Africa","AF",IF(A76="Oceania","OC",IF(A76="North America","NA",IF(A76="Antarctica","AN",IF(A76="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="H76" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -8684,7 +8717,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="7" t="str">
-        <f>IF(A77="Asia","AS",IF(A77="Europe","EU",IF(A77="Africa","AF",IF(A77="Oceania","OC",IF(A77="North America","NA",IF(A77="Antarctica","AN",IF(A77="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -8703,7 +8736,7 @@
         <v>830</v>
       </c>
       <c r="H77" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -8711,7 +8744,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="7" t="str">
-        <f>IF(A78="Asia","AS",IF(A78="Europe","EU",IF(A78="Africa","AF",IF(A78="Oceania","OC",IF(A78="North America","NA",IF(A78="Antarctica","AN",IF(A78="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -8730,7 +8763,7 @@
         <v>833</v>
       </c>
       <c r="H78" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -8738,7 +8771,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="7" t="str">
-        <f>IF(A79="Asia","AS",IF(A79="Europe","EU",IF(A79="Africa","AF",IF(A79="Oceania","OC",IF(A79="North America","NA",IF(A79="Antarctica","AN",IF(A79="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -8757,7 +8790,7 @@
         <v>836</v>
       </c>
       <c r="H79" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -8765,7 +8798,7 @@
         <v>4</v>
       </c>
       <c r="B80" s="7" t="str">
-        <f>IF(A80="Asia","AS",IF(A80="Europe","EU",IF(A80="Africa","AF",IF(A80="Oceania","OC",IF(A80="North America","NA",IF(A80="Antarctica","AN",IF(A80="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -8784,7 +8817,7 @@
         <v>839</v>
       </c>
       <c r="H80" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -8792,7 +8825,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="7" t="str">
-        <f>IF(A81="Asia","AS",IF(A81="Europe","EU",IF(A81="Africa","AF",IF(A81="Oceania","OC",IF(A81="North America","NA",IF(A81="Antarctica","AN",IF(A81="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -8811,7 +8844,7 @@
         <v>842</v>
       </c>
       <c r="H81" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -8819,7 +8852,7 @@
         <v>565</v>
       </c>
       <c r="B82" s="7" t="str">
-        <f>IF(A82="Asia","AS",IF(A82="Europe","EU",IF(A82="Africa","AF",IF(A82="Oceania","OC",IF(A82="North America","NA",IF(A82="Antarctica","AN",IF(A82="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>SA</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -8838,7 +8871,7 @@
         <v>71</v>
       </c>
       <c r="H82" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="I82" t="s">
         <v>843</v>
@@ -8850,7 +8883,7 @@
         <v>845</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="M82" t="s">
         <v>846</v>
@@ -8861,7 +8894,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="7" t="str">
-        <f>IF(A83="Asia","AS",IF(A83="Europe","EU",IF(A83="Africa","AF",IF(A83="Oceania","OC",IF(A83="North America","NA",IF(A83="Antarctica","AN",IF(A83="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -8880,7 +8913,7 @@
         <v>849</v>
       </c>
       <c r="H83" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -8888,7 +8921,7 @@
         <v>25</v>
       </c>
       <c r="B84" s="7" t="str">
-        <f>IF(A84="Asia","AS",IF(A84="Europe","EU",IF(A84="Africa","AF",IF(A84="Oceania","OC",IF(A84="North America","NA",IF(A84="Antarctica","AN",IF(A84="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>OC</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -8907,7 +8940,7 @@
         <v>852</v>
       </c>
       <c r="H84" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="I84" t="s">
         <v>853</v>
@@ -8919,7 +8952,7 @@
         <v>855</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="M84" s="7" t="s">
         <v>589</v>
@@ -8930,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="7" t="str">
-        <f>IF(A85="Asia","AS",IF(A85="Europe","EU",IF(A85="Africa","AF",IF(A85="Oceania","OC",IF(A85="North America","NA",IF(A85="Antarctica","AN",IF(A85="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -8949,7 +8982,7 @@
         <v>858</v>
       </c>
       <c r="H85" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="I85" t="s">
         <v>859</v>
@@ -8961,7 +8994,7 @@
         <v>861</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="M85" t="s">
         <v>862</v>
@@ -8972,7 +9005,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="7" t="str">
-        <f>IF(A86="Asia","AS",IF(A86="Europe","EU",IF(A86="Africa","AF",IF(A86="Oceania","OC",IF(A86="North America","NA",IF(A86="Antarctica","AN",IF(A86="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -8991,7 +9024,7 @@
         <v>865</v>
       </c>
       <c r="H86" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -8999,7 +9032,7 @@
         <v>565</v>
       </c>
       <c r="B87" s="7" t="str">
-        <f>IF(A87="Asia","AS",IF(A87="Europe","EU",IF(A87="Africa","AF",IF(A87="Oceania","OC",IF(A87="North America","NA",IF(A87="Antarctica","AN",IF(A87="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>SA</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -9018,7 +9051,7 @@
         <v>865</v>
       </c>
       <c r="H87" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="I87" t="s">
         <v>866</v>
@@ -9030,7 +9063,7 @@
         <v>868</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="M87" t="s">
         <v>869</v>
@@ -9041,7 +9074,7 @@
         <v>25</v>
       </c>
       <c r="B88" s="7" t="str">
-        <f>IF(A88="Asia","AS",IF(A88="Europe","EU",IF(A88="Africa","AF",IF(A88="Oceania","OC",IF(A88="North America","NA",IF(A88="Antarctica","AN",IF(A88="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>OC</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -9060,7 +9093,7 @@
         <v>665</v>
       </c>
       <c r="H88" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -9068,7 +9101,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="7" t="str">
-        <f>IF(A89="Asia","AS",IF(A89="Europe","EU",IF(A89="Africa","AF",IF(A89="Oceania","OC",IF(A89="North America","NA",IF(A89="Antarctica","AN",IF(A89="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -9087,7 +9120,7 @@
         <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -9095,7 +9128,7 @@
         <v>4</v>
       </c>
       <c r="B90" s="7" t="str">
-        <f>IF(A90="Asia","AS",IF(A90="Europe","EU",IF(A90="Africa","AF",IF(A90="Oceania","OC",IF(A90="North America","NA",IF(A90="Antarctica","AN",IF(A90="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -9114,7 +9147,7 @@
         <v>872</v>
       </c>
       <c r="H90" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -9122,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="7" t="str">
-        <f>IF(A91="Asia","AS",IF(A91="Europe","EU",IF(A91="Africa","AF",IF(A91="Oceania","OC",IF(A91="North America","NA",IF(A91="Antarctica","AN",IF(A91="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -9141,7 +9174,7 @@
         <v>875</v>
       </c>
       <c r="H91" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -9149,7 +9182,7 @@
         <v>15</v>
       </c>
       <c r="B92" s="7" t="str">
-        <f>IF(A92="Asia","AS",IF(A92="Europe","EU",IF(A92="Africa","AF",IF(A92="Oceania","OC",IF(A92="North America","NA",IF(A92="Antarctica","AN",IF(A92="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -9168,7 +9201,7 @@
         <v>878</v>
       </c>
       <c r="H92" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -9176,7 +9209,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="7" t="str">
-        <f>IF(A93="Asia","AS",IF(A93="Europe","EU",IF(A93="Africa","AF",IF(A93="Oceania","OC",IF(A93="North America","NA",IF(A93="Antarctica","AN",IF(A93="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -9195,7 +9228,7 @@
         <v>881</v>
       </c>
       <c r="H93" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="I93" t="s">
         <v>882</v>
@@ -9207,10 +9240,10 @@
         <v>884</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="M93" t="s">
-        <v>885</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -9218,7 +9251,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="7" t="str">
-        <f>IF(A94="Asia","AS",IF(A94="Europe","EU",IF(A94="Africa","AF",IF(A94="Oceania","OC",IF(A94="North America","NA",IF(A94="Antarctica","AN",IF(A94="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -9228,16 +9261,16 @@
         <v>400</v>
       </c>
       <c r="E94" t="s">
+        <v>885</v>
+      </c>
+      <c r="F94" t="s">
         <v>886</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>887</v>
       </c>
-      <c r="G94" t="s">
-        <v>888</v>
-      </c>
       <c r="H94" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>853</v>
@@ -9249,7 +9282,7 @@
         <v>855</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="M94" s="7" t="s">
         <v>589</v>
@@ -9260,7 +9293,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="7" t="str">
-        <f>IF(A95="Asia","AS",IF(A95="Europe","EU",IF(A95="Africa","AF",IF(A95="Oceania","OC",IF(A95="North America","NA",IF(A95="Antarctica","AN",IF(A95="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -9270,16 +9303,16 @@
         <v>401</v>
       </c>
       <c r="E95" t="s">
+        <v>888</v>
+      </c>
+      <c r="F95" t="s">
         <v>889</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>890</v>
       </c>
-      <c r="G95" t="s">
-        <v>891</v>
-      </c>
       <c r="H95" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -9287,7 +9320,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="7" t="str">
-        <f>IF(A96="Asia","AS",IF(A96="Europe","EU",IF(A96="Africa","AF",IF(A96="Oceania","OC",IF(A96="North America","NA",IF(A96="Antarctica","AN",IF(A96="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -9297,16 +9330,16 @@
         <v>402</v>
       </c>
       <c r="E96" t="s">
+        <v>891</v>
+      </c>
+      <c r="F96" t="s">
         <v>892</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>893</v>
       </c>
-      <c r="G96" t="s">
-        <v>894</v>
-      </c>
       <c r="H96" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -9314,7 +9347,7 @@
         <v>567</v>
       </c>
       <c r="B97" s="7" t="str">
-        <f>IF(A97="Asia","AS",IF(A97="Europe","EU",IF(A97="Africa","AF",IF(A97="Oceania","OC",IF(A97="North America","NA",IF(A97="Antarctica","AN",IF(A97="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -9324,16 +9357,16 @@
         <v>403</v>
       </c>
       <c r="E97" t="s">
+        <v>894</v>
+      </c>
+      <c r="F97" t="s">
         <v>895</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>896</v>
       </c>
-      <c r="G97" t="s">
-        <v>897</v>
-      </c>
       <c r="H97" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -9341,7 +9374,7 @@
         <v>567</v>
       </c>
       <c r="B98" s="7" t="str">
-        <f>IF(A98="Asia","AS",IF(A98="Europe","EU",IF(A98="Africa","AF",IF(A98="Oceania","OC",IF(A98="North America","NA",IF(A98="Antarctica","AN",IF(A98="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -9351,16 +9384,16 @@
         <v>404</v>
       </c>
       <c r="E98" t="s">
+        <v>897</v>
+      </c>
+      <c r="F98" t="s">
         <v>898</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>899</v>
       </c>
-      <c r="G98" t="s">
-        <v>900</v>
-      </c>
       <c r="H98" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -9368,7 +9401,7 @@
         <v>567</v>
       </c>
       <c r="B99" s="7" t="str">
-        <f>IF(A99="Asia","AS",IF(A99="Europe","EU",IF(A99="Africa","AF",IF(A99="Oceania","OC",IF(A99="North America","NA",IF(A99="Antarctica","AN",IF(A99="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -9378,16 +9411,16 @@
         <v>405</v>
       </c>
       <c r="E99" t="s">
+        <v>900</v>
+      </c>
+      <c r="F99" t="s">
         <v>901</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>902</v>
       </c>
-      <c r="G99" t="s">
-        <v>903</v>
-      </c>
       <c r="H99" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>863</v>
@@ -9399,10 +9432,10 @@
         <v>865</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M99" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -9410,7 +9443,7 @@
         <v>25</v>
       </c>
       <c r="B100" s="7" t="str">
-        <f>IF(A100="Asia","AS",IF(A100="Europe","EU",IF(A100="Africa","AF",IF(A100="Oceania","OC",IF(A100="North America","NA",IF(A100="Antarctica","AN",IF(A100="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>OC</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -9420,16 +9453,16 @@
         <v>406</v>
       </c>
       <c r="E100" t="s">
+        <v>904</v>
+      </c>
+      <c r="F100" t="s">
         <v>905</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>906</v>
       </c>
-      <c r="G100" t="s">
-        <v>907</v>
-      </c>
       <c r="H100" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -9437,7 +9470,7 @@
         <v>567</v>
       </c>
       <c r="B101" s="7" t="str">
-        <f>IF(A101="Asia","AS",IF(A101="Europe","EU",IF(A101="Africa","AF",IF(A101="Oceania","OC",IF(A101="North America","NA",IF(A101="Antarctica","AN",IF(A101="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -9447,16 +9480,16 @@
         <v>407</v>
       </c>
       <c r="E101" t="s">
+        <v>907</v>
+      </c>
+      <c r="F101" t="s">
         <v>908</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>909</v>
       </c>
-      <c r="G101" t="s">
-        <v>910</v>
-      </c>
       <c r="H101" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -9464,7 +9497,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="7" t="str">
-        <f>IF(A102="Asia","AS",IF(A102="Europe","EU",IF(A102="Africa","AF",IF(A102="Oceania","OC",IF(A102="North America","NA",IF(A102="Antarctica","AN",IF(A102="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -9474,31 +9507,31 @@
         <v>408</v>
       </c>
       <c r="E102" t="s">
+        <v>910</v>
+      </c>
+      <c r="F102" t="s">
         <v>911</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>912</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I102" t="s">
         <v>913</v>
       </c>
-      <c r="H102" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>914</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>915</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="M102" t="s">
         <v>916</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>1753</v>
-      </c>
-      <c r="M102" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -9506,7 +9539,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="7" t="str">
-        <f>IF(A103="Asia","AS",IF(A103="Europe","EU",IF(A103="Africa","AF",IF(A103="Oceania","OC",IF(A103="North America","NA",IF(A103="Antarctica","AN",IF(A103="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -9516,16 +9549,16 @@
         <v>409</v>
       </c>
       <c r="E103" t="s">
+        <v>917</v>
+      </c>
+      <c r="F103" t="s">
         <v>918</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>919</v>
       </c>
-      <c r="G103" t="s">
-        <v>920</v>
-      </c>
       <c r="H103" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -9533,7 +9566,7 @@
         <v>4</v>
       </c>
       <c r="B104" s="7" t="str">
-        <f>IF(A104="Asia","AS",IF(A104="Europe","EU",IF(A104="Africa","AF",IF(A104="Oceania","OC",IF(A104="North America","NA",IF(A104="Antarctica","AN",IF(A104="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AF</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -9543,16 +9576,16 @@
         <v>410</v>
       </c>
       <c r="E104" t="s">
+        <v>920</v>
+      </c>
+      <c r="F104" t="s">
         <v>921</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>922</v>
       </c>
-      <c r="G104" t="s">
-        <v>923</v>
-      </c>
       <c r="H104" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -9560,7 +9593,7 @@
         <v>567</v>
       </c>
       <c r="B105" s="7" t="str">
-        <f>IF(A105="Asia","AS",IF(A105="Europe","EU",IF(A105="Africa","AF",IF(A105="Oceania","OC",IF(A105="North America","NA",IF(A105="Antarctica","AN",IF(A105="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -9570,31 +9603,31 @@
         <v>411</v>
       </c>
       <c r="E105" t="s">
+        <v>923</v>
+      </c>
+      <c r="F105" t="s">
         <v>924</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>925</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I105" t="s">
         <v>926</v>
       </c>
-      <c r="H105" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>927</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>928</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M105" t="s">
         <v>929</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M105" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -9602,7 +9635,7 @@
         <v>567</v>
       </c>
       <c r="B106" s="7" t="str">
-        <f>IF(A106="Asia","AS",IF(A106="Europe","EU",IF(A106="Africa","AF",IF(A106="Oceania","OC",IF(A106="North America","NA",IF(A106="Antarctica","AN",IF(A106="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -9612,16 +9645,16 @@
         <v>412</v>
       </c>
       <c r="E106" t="s">
+        <v>930</v>
+      </c>
+      <c r="F106" t="s">
         <v>931</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>932</v>
       </c>
-      <c r="G106" t="s">
-        <v>933</v>
-      </c>
       <c r="H106" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -9629,7 +9662,7 @@
         <v>25</v>
       </c>
       <c r="B107" s="7" t="str">
-        <f>IF(A107="Asia","AS",IF(A107="Europe","EU",IF(A107="Africa","AF",IF(A107="Oceania","OC",IF(A107="North America","NA",IF(A107="Antarctica","AN",IF(A107="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>OC</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -9648,7 +9681,7 @@
         <v>66</v>
       </c>
       <c r="H107" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -9656,7 +9689,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="7" t="str">
-        <f>IF(A108="Asia","AS",IF(A108="Europe","EU",IF(A108="Africa","AF",IF(A108="Oceania","OC",IF(A108="North America","NA",IF(A108="Antarctica","AN",IF(A108="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -9666,16 +9699,16 @@
         <v>414</v>
       </c>
       <c r="E108" t="s">
+        <v>933</v>
+      </c>
+      <c r="F108" t="s">
         <v>934</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>935</v>
       </c>
-      <c r="G108" t="s">
-        <v>936</v>
-      </c>
       <c r="H108" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -9683,7 +9716,7 @@
         <v>567</v>
       </c>
       <c r="B109" s="7" t="str">
-        <f>IF(A109="Asia","AS",IF(A109="Europe","EU",IF(A109="Africa","AF",IF(A109="Oceania","OC",IF(A109="North America","NA",IF(A109="Antarctica","AN",IF(A109="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -9693,16 +9726,16 @@
         <v>415</v>
       </c>
       <c r="E109" t="s">
+        <v>936</v>
+      </c>
+      <c r="F109" t="s">
         <v>937</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>938</v>
       </c>
-      <c r="G109" t="s">
-        <v>939</v>
-      </c>
       <c r="H109" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -9710,7 +9743,7 @@
         <v>15</v>
       </c>
       <c r="B110" s="7" t="str">
-        <f>IF(A110="Asia","AS",IF(A110="Europe","EU",IF(A110="Africa","AF",IF(A110="Oceania","OC",IF(A110="North America","NA",IF(A110="Antarctica","AN",IF(A110="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -9720,31 +9753,31 @@
         <v>416</v>
       </c>
       <c r="E110" t="s">
+        <v>939</v>
+      </c>
+      <c r="F110" t="s">
         <v>940</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>941</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I110" t="s">
         <v>942</v>
       </c>
-      <c r="H110" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>943</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>944</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M110" t="s">
         <v>945</v>
-      </c>
-      <c r="L110" s="7" t="s">
-        <v>1754</v>
-      </c>
-      <c r="M110" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -9752,7 +9785,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="7" t="str">
-        <f>IF(A111="Asia","AS",IF(A111="Europe","EU",IF(A111="Africa","AF",IF(A111="Oceania","OC",IF(A111="North America","NA",IF(A111="Antarctica","AN",IF(A111="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -9762,16 +9795,16 @@
         <v>417</v>
       </c>
       <c r="E111" t="s">
+        <v>946</v>
+      </c>
+      <c r="F111" t="s">
         <v>947</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>948</v>
       </c>
-      <c r="G111" t="s">
-        <v>949</v>
-      </c>
       <c r="H111" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -9779,7 +9812,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="7" t="str">
-        <f>IF(A112="Asia","AS",IF(A112="Europe","EU",IF(A112="Africa","AF",IF(A112="Oceania","OC",IF(A112="North America","NA",IF(A112="Antarctica","AN",IF(A112="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -9789,16 +9822,16 @@
         <v>418</v>
       </c>
       <c r="E112" t="s">
+        <v>949</v>
+      </c>
+      <c r="F112" t="s">
         <v>950</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>951</v>
       </c>
-      <c r="G112" t="s">
-        <v>952</v>
-      </c>
       <c r="H112" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -9806,7 +9839,7 @@
         <v>15</v>
       </c>
       <c r="B113" s="7" t="str">
-        <f>IF(A113="Asia","AS",IF(A113="Europe","EU",IF(A113="Africa","AF",IF(A113="Oceania","OC",IF(A113="North America","NA",IF(A113="Antarctica","AN",IF(A113="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -9816,31 +9849,31 @@
         <v>419</v>
       </c>
       <c r="E113" t="s">
+        <v>952</v>
+      </c>
+      <c r="F113" t="s">
         <v>953</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>954</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I113" t="s">
         <v>955</v>
       </c>
-      <c r="H113" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>956</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>957</v>
       </c>
-      <c r="K113" t="s">
-        <v>958</v>
-      </c>
       <c r="L113" s="7" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -9848,7 +9881,7 @@
         <v>15</v>
       </c>
       <c r="B114" s="7" t="str">
-        <f>IF(A114="Asia","AS",IF(A114="Europe","EU",IF(A114="Africa","AF",IF(A114="Oceania","OC",IF(A114="North America","NA",IF(A114="Antarctica","AN",IF(A114="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -9867,22 +9900,22 @@
         <v>878</v>
       </c>
       <c r="H114" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="I114" t="s">
+        <v>958</v>
+      </c>
+      <c r="J114" t="s">
         <v>959</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>960</v>
       </c>
-      <c r="K114" t="s">
-        <v>961</v>
-      </c>
       <c r="L114" s="7" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -9890,7 +9923,7 @@
         <v>15</v>
       </c>
       <c r="B115" s="7" t="str">
-        <f>IF(A115="Asia","AS",IF(A115="Europe","EU",IF(A115="Africa","AF",IF(A115="Oceania","OC",IF(A115="North America","NA",IF(A115="Antarctica","AN",IF(A115="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -9900,16 +9933,16 @@
         <v>421</v>
       </c>
       <c r="E115" t="s">
+        <v>961</v>
+      </c>
+      <c r="F115" t="s">
         <v>962</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>963</v>
       </c>
-      <c r="G115" t="s">
-        <v>964</v>
-      </c>
       <c r="H115" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>737</v>
@@ -9920,8 +9953,11 @@
       <c r="K115" s="7" t="s">
         <v>739</v>
       </c>
+      <c r="L115" s="7" t="s">
+        <v>1769</v>
+      </c>
       <c r="M115" t="s">
-        <v>965</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -9929,7 +9965,7 @@
         <v>15</v>
       </c>
       <c r="B116" s="7" t="str">
-        <f>IF(A116="Asia","AS",IF(A116="Europe","EU",IF(A116="Africa","AF",IF(A116="Oceania","OC",IF(A116="North America","NA",IF(A116="Antarctica","AN",IF(A116="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -9939,16 +9975,16 @@
         <v>422</v>
       </c>
       <c r="E116" t="s">
+        <v>964</v>
+      </c>
+      <c r="F116" t="s">
+        <v>965</v>
+      </c>
+      <c r="G116" t="s">
         <v>966</v>
       </c>
-      <c r="F116" t="s">
-        <v>967</v>
-      </c>
-      <c r="G116" t="s">
-        <v>968</v>
-      </c>
       <c r="H116" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,7 +9992,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="7" t="str">
-        <f>IF(A117="Asia","AS",IF(A117="Europe","EU",IF(A117="Africa","AF",IF(A117="Oceania","OC",IF(A117="North America","NA",IF(A117="Antarctica","AN",IF(A117="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -9966,31 +10002,31 @@
         <v>423</v>
       </c>
       <c r="E117" t="s">
+        <v>967</v>
+      </c>
+      <c r="F117" t="s">
+        <v>968</v>
+      </c>
+      <c r="G117" t="s">
         <v>969</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H117" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I117" t="s">
         <v>970</v>
       </c>
-      <c r="G117" t="s">
+      <c r="J117" t="s">
         <v>971</v>
       </c>
-      <c r="H117" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="K117" t="s">
         <v>972</v>
       </c>
-      <c r="J117" t="s">
-        <v>973</v>
-      </c>
-      <c r="K117" t="s">
-        <v>974</v>
-      </c>
       <c r="L117" s="7" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="M117" t="s">
-        <v>975</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -9998,7 +10034,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="7" t="str">
-        <f>IF(A118="Asia","AS",IF(A118="Europe","EU",IF(A118="Africa","AF",IF(A118="Oceania","OC",IF(A118="North America","NA",IF(A118="Antarctica","AN",IF(A118="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -10008,16 +10044,16 @@
         <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F118" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G118" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H118" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -10025,7 +10061,7 @@
         <v>15</v>
       </c>
       <c r="B119" s="7" t="str">
-        <f>IF(A119="Asia","AS",IF(A119="Europe","EU",IF(A119="Africa","AF",IF(A119="Oceania","OC",IF(A119="North America","NA",IF(A119="Antarctica","AN",IF(A119="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -10035,16 +10071,16 @@
         <v>425</v>
       </c>
       <c r="E119" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F119" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G119" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H119" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -10052,7 +10088,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="7" t="str">
-        <f>IF(A120="Asia","AS",IF(A120="Europe","EU",IF(A120="Africa","AF",IF(A120="Oceania","OC",IF(A120="North America","NA",IF(A120="Antarctica","AN",IF(A120="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>EU</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -10062,31 +10098,31 @@
         <v>426</v>
       </c>
       <c r="E120" t="s">
+        <v>979</v>
+      </c>
+      <c r="F120" t="s">
+        <v>980</v>
+      </c>
+      <c r="G120" t="s">
+        <v>981</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I120" t="s">
         <v>982</v>
       </c>
-      <c r="F120" t="s">
+      <c r="J120" t="s">
         <v>983</v>
       </c>
-      <c r="G120" t="s">
+      <c r="K120" t="s">
         <v>984</v>
       </c>
-      <c r="H120" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I120" t="s">
-        <v>985</v>
-      </c>
-      <c r="J120" t="s">
-        <v>986</v>
-      </c>
-      <c r="K120" t="s">
-        <v>987</v>
-      </c>
       <c r="L120" s="7" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -10094,7 +10130,7 @@
         <v>567</v>
       </c>
       <c r="B121" s="7" t="str">
-        <f>IF(A121="Asia","AS",IF(A121="Europe","EU",IF(A121="Africa","AF",IF(A121="Oceania","OC",IF(A121="North America","NA",IF(A121="Antarctica","AN",IF(A121="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>NA</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -10104,16 +10140,16 @@
         <v>427</v>
       </c>
       <c r="E121" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F121" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G121" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H121" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -10121,7 +10157,7 @@
         <v>15</v>
       </c>
       <c r="B122" s="7" t="str">
-        <f>IF(A122="Asia","AS",IF(A122="Europe","EU",IF(A122="Africa","AF",IF(A122="Oceania","OC",IF(A122="North America","NA",IF(A122="Antarctica","AN",IF(A122="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="1"/>
         <v>AS</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -10131,28 +10167,28 @@
         <v>428</v>
       </c>
       <c r="E122" t="s">
+        <v>988</v>
+      </c>
+      <c r="F122" t="s">
+        <v>989</v>
+      </c>
+      <c r="G122" t="s">
+        <v>990</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I122" t="s">
         <v>991</v>
       </c>
-      <c r="F122" t="s">
+      <c r="J122" t="s">
         <v>992</v>
       </c>
-      <c r="G122" t="s">
+      <c r="K122" t="s">
         <v>993</v>
       </c>
-      <c r="H122" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I122" t="s">
-        <v>994</v>
-      </c>
-      <c r="J122" t="s">
-        <v>995</v>
-      </c>
-      <c r="K122" t="s">
-        <v>996</v>
-      </c>
       <c r="L122" s="7" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="M122" s="7" t="s">
         <v>589</v>
@@ -10163,7 +10199,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="str">
-        <f>IF(A123="Asia","AS",IF(A123="Europe","EU",IF(A123="Africa","AF",IF(A123="Oceania","OC",IF(A123="North America","NA",IF(A123="Antarctica","AN",IF(A123="South America","SA",FALSE)))))))</f>
+        <f t="shared" ref="B123:B186" si="2">IF(A123="Asia","AS",IF(A123="Europe","EU",IF(A123="Africa","AF",IF(A123="Oceania","OC",IF(A123="North America","NA",IF(A123="Antarctica","AN",IF(A123="South America","SA",FALSE)))))))</f>
         <v>EU</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -10173,16 +10209,16 @@
         <v>429</v>
       </c>
       <c r="E123" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F123" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G123" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H123" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -10190,7 +10226,7 @@
         <v>15</v>
       </c>
       <c r="B124" s="7" t="str">
-        <f>IF(A124="Asia","AS",IF(A124="Europe","EU",IF(A124="Africa","AF",IF(A124="Oceania","OC",IF(A124="North America","NA",IF(A124="Antarctica","AN",IF(A124="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -10200,16 +10236,16 @@
         <v>430</v>
       </c>
       <c r="E124" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F124" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G124" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H124" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -10217,7 +10253,7 @@
         <v>15</v>
       </c>
       <c r="B125" s="7" t="str">
-        <f>IF(A125="Asia","AS",IF(A125="Europe","EU",IF(A125="Africa","AF",IF(A125="Oceania","OC",IF(A125="North America","NA",IF(A125="Antarctica","AN",IF(A125="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -10227,16 +10263,16 @@
         <v>431</v>
       </c>
       <c r="E125" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F125" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G125" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="H125" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -10244,7 +10280,7 @@
         <v>4</v>
       </c>
       <c r="B126" s="7" t="str">
-        <f>IF(A126="Asia","AS",IF(A126="Europe","EU",IF(A126="Africa","AF",IF(A126="Oceania","OC",IF(A126="North America","NA",IF(A126="Antarctica","AN",IF(A126="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -10254,16 +10290,16 @@
         <v>432</v>
       </c>
       <c r="E126" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F126" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G126" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H126" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -10271,7 +10307,7 @@
         <v>25</v>
       </c>
       <c r="B127" s="7" t="str">
-        <f>IF(A127="Asia","AS",IF(A127="Europe","EU",IF(A127="Africa","AF",IF(A127="Oceania","OC",IF(A127="North America","NA",IF(A127="Antarctica","AN",IF(A127="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -10281,16 +10317,16 @@
         <v>433</v>
       </c>
       <c r="E127" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F127" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G127" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H127" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -10298,7 +10334,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="7" t="str">
-        <f>IF(A128="Asia","AS",IF(A128="Europe","EU",IF(A128="Africa","AF",IF(A128="Oceania","OC",IF(A128="North America","NA",IF(A128="Antarctica","AN",IF(A128="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -10308,16 +10344,16 @@
         <v>434</v>
       </c>
       <c r="E128" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F128" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G128" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H128" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -10325,7 +10361,7 @@
         <v>15</v>
       </c>
       <c r="B129" s="7" t="str">
-        <f>IF(A129="Asia","AS",IF(A129="Europe","EU",IF(A129="Africa","AF",IF(A129="Oceania","OC",IF(A129="North America","NA",IF(A129="Antarctica","AN",IF(A129="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -10335,16 +10371,16 @@
         <v>435</v>
       </c>
       <c r="E129" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F129" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G129" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="H129" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -10352,7 +10388,7 @@
         <v>15</v>
       </c>
       <c r="B130" s="7" t="str">
-        <f>IF(A130="Asia","AS",IF(A130="Europe","EU",IF(A130="Africa","AF",IF(A130="Oceania","OC",IF(A130="North America","NA",IF(A130="Antarctica","AN",IF(A130="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -10362,28 +10398,28 @@
         <v>436</v>
       </c>
       <c r="E130" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I130" t="s">
         <v>1018</v>
       </c>
-      <c r="F130" t="s">
+      <c r="J130" t="s">
         <v>1019</v>
       </c>
-      <c r="G130" t="s">
+      <c r="K130" t="s">
         <v>1020</v>
       </c>
-      <c r="H130" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K130" t="s">
-        <v>1023</v>
-      </c>
       <c r="L130" s="7" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="M130" s="7" t="s">
         <v>589</v>
@@ -10394,7 +10430,7 @@
         <v>15</v>
       </c>
       <c r="B131" s="7" t="str">
-        <f>IF(A131="Asia","AS",IF(A131="Europe","EU",IF(A131="Africa","AF",IF(A131="Oceania","OC",IF(A131="North America","NA",IF(A131="Antarctica","AN",IF(A131="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -10404,16 +10440,16 @@
         <v>437</v>
       </c>
       <c r="E131" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F131" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="G131" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="H131" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -10421,38 +10457,38 @@
         <v>15</v>
       </c>
       <c r="B132" s="7" t="str">
-        <f>IF(A132="Asia","AS",IF(A132="Europe","EU",IF(A132="Africa","AF",IF(A132="Oceania","OC",IF(A132="North America","NA",IF(A132="Antarctica","AN",IF(A132="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>438</v>
       </c>
       <c r="E132" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I132" t="s">
         <v>1028</v>
       </c>
-      <c r="F132" t="s">
+      <c r="J132" t="s">
         <v>1029</v>
       </c>
-      <c r="G132" t="s">
+      <c r="K132" t="s">
         <v>1030</v>
       </c>
-      <c r="H132" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1033</v>
-      </c>
       <c r="L132" s="7" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>669</v>
@@ -10463,7 +10499,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="7" t="str">
-        <f>IF(A133="Asia","AS",IF(A133="Europe","EU",IF(A133="Africa","AF",IF(A133="Oceania","OC",IF(A133="North America","NA",IF(A133="Antarctica","AN",IF(A133="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -10473,16 +10509,16 @@
         <v>439</v>
       </c>
       <c r="E133" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F133" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G133" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H133" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -10490,7 +10526,7 @@
         <v>15</v>
       </c>
       <c r="B134" s="7" t="str">
-        <f>IF(A134="Asia","AS",IF(A134="Europe","EU",IF(A134="Africa","AF",IF(A134="Oceania","OC",IF(A134="North America","NA",IF(A134="Antarctica","AN",IF(A134="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -10500,16 +10536,16 @@
         <v>440</v>
       </c>
       <c r="E134" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F134" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G134" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H134" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -10517,7 +10553,7 @@
         <v>4</v>
       </c>
       <c r="B135" s="7" t="str">
-        <f>IF(A135="Asia","AS",IF(A135="Europe","EU",IF(A135="Africa","AF",IF(A135="Oceania","OC",IF(A135="North America","NA",IF(A135="Antarctica","AN",IF(A135="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -10527,16 +10563,16 @@
         <v>441</v>
       </c>
       <c r="E135" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F135" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G135" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H135" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -10544,7 +10580,7 @@
         <v>4</v>
       </c>
       <c r="B136" s="7" t="str">
-        <f>IF(A136="Asia","AS",IF(A136="Europe","EU",IF(A136="Africa","AF",IF(A136="Oceania","OC",IF(A136="North America","NA",IF(A136="Antarctica","AN",IF(A136="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -10554,16 +10590,16 @@
         <v>442</v>
       </c>
       <c r="E136" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F136" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G136" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H136" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -10571,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="B137" s="7" t="str">
-        <f>IF(A137="Asia","AS",IF(A137="Europe","EU",IF(A137="Africa","AF",IF(A137="Oceania","OC",IF(A137="North America","NA",IF(A137="Antarctica","AN",IF(A137="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -10581,16 +10617,16 @@
         <v>443</v>
       </c>
       <c r="E137" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F137" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G137" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H137" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -10598,7 +10634,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="7" t="str">
-        <f>IF(A138="Asia","AS",IF(A138="Europe","EU",IF(A138="Africa","AF",IF(A138="Oceania","OC",IF(A138="North America","NA",IF(A138="Antarctica","AN",IF(A138="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -10608,16 +10644,16 @@
         <v>444</v>
       </c>
       <c r="E138" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F138" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G138" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="H138" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -10625,7 +10661,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="7" t="str">
-        <f>IF(A139="Asia","AS",IF(A139="Europe","EU",IF(A139="Africa","AF",IF(A139="Oceania","OC",IF(A139="North America","NA",IF(A139="Antarctica","AN",IF(A139="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -10635,16 +10671,16 @@
         <v>445</v>
       </c>
       <c r="E139" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F139" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G139" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H139" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -10652,7 +10688,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="7" t="str">
-        <f>IF(A140="Asia","AS",IF(A140="Europe","EU",IF(A140="Africa","AF",IF(A140="Oceania","OC",IF(A140="North America","NA",IF(A140="Antarctica","AN",IF(A140="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -10662,31 +10698,31 @@
         <v>446</v>
       </c>
       <c r="E140" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I140" t="s">
         <v>1055</v>
       </c>
-      <c r="F140" t="s">
+      <c r="J140" t="s">
         <v>1056</v>
       </c>
-      <c r="G140" t="s">
+      <c r="K140" t="s">
         <v>1057</v>
       </c>
-      <c r="H140" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J140" t="s">
+      <c r="L140" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="M140" s="7" t="s">
         <v>1059</v>
-      </c>
-      <c r="K140" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L140" s="7" t="s">
-        <v>1758</v>
-      </c>
-      <c r="M140" s="7" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -10694,41 +10730,41 @@
         <v>15</v>
       </c>
       <c r="B141" s="7" t="str">
-        <f>IF(A141="Asia","AS",IF(A141="Europe","EU",IF(A141="Africa","AF",IF(A141="Oceania","OC",IF(A141="North America","NA",IF(A141="Antarctica","AN",IF(A141="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>447</v>
       </c>
       <c r="E141" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J141" t="s">
         <v>1065</v>
       </c>
-      <c r="F141" t="s">
+      <c r="K141" t="s">
         <v>1066</v>
       </c>
-      <c r="G141" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K141" t="s">
-        <v>1070</v>
-      </c>
       <c r="L141" s="7" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -10736,7 +10772,7 @@
         <v>4</v>
       </c>
       <c r="B142" s="7" t="str">
-        <f>IF(A142="Asia","AS",IF(A142="Europe","EU",IF(A142="Africa","AF",IF(A142="Oceania","OC",IF(A142="North America","NA",IF(A142="Antarctica","AN",IF(A142="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -10746,31 +10782,31 @@
         <v>448</v>
       </c>
       <c r="E142" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J142" t="s">
         <v>1071</v>
       </c>
-      <c r="F142" t="s">
+      <c r="K142" t="s">
         <v>1072</v>
       </c>
-      <c r="G142" t="s">
+      <c r="L142" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M142" t="s">
         <v>1073</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1640</v>
-      </c>
-      <c r="I142" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K142" t="s">
-        <v>1076</v>
-      </c>
-      <c r="L142" s="7" t="s">
-        <v>1759</v>
-      </c>
-      <c r="M142" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -10778,7 +10814,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="7" t="str">
-        <f>IF(A143="Asia","AS",IF(A143="Europe","EU",IF(A143="Africa","AF",IF(A143="Oceania","OC",IF(A143="North America","NA",IF(A143="Antarctica","AN",IF(A143="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -10788,16 +10824,16 @@
         <v>449</v>
       </c>
       <c r="E143" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F143" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="G143" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H143" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -10805,7 +10841,7 @@
         <v>15</v>
       </c>
       <c r="B144" s="7" t="str">
-        <f>IF(A144="Asia","AS",IF(A144="Europe","EU",IF(A144="Africa","AF",IF(A144="Oceania","OC",IF(A144="North America","NA",IF(A144="Antarctica","AN",IF(A144="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -10815,16 +10851,16 @@
         <v>450</v>
       </c>
       <c r="E144" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F144" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G144" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="H144" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -10832,7 +10868,7 @@
         <v>15</v>
       </c>
       <c r="B145" s="7" t="str">
-        <f>IF(A145="Asia","AS",IF(A145="Europe","EU",IF(A145="Africa","AF",IF(A145="Oceania","OC",IF(A145="North America","NA",IF(A145="Antarctica","AN",IF(A145="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -10842,31 +10878,31 @@
         <v>451</v>
       </c>
       <c r="E145" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J145" t="s">
         <v>1084</v>
       </c>
-      <c r="F145" t="s">
+      <c r="K145" t="s">
         <v>1085</v>
       </c>
-      <c r="G145" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1643</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1089</v>
-      </c>
       <c r="L145" s="7" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>669</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -10874,7 +10910,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="7" t="str">
-        <f>IF(A146="Asia","AS",IF(A146="Europe","EU",IF(A146="Africa","AF",IF(A146="Oceania","OC",IF(A146="North America","NA",IF(A146="Antarctica","AN",IF(A146="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -10884,16 +10920,16 @@
         <v>452</v>
       </c>
       <c r="E146" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F146" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="G146" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="H146" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -10901,7 +10937,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="7" t="str">
-        <f>IF(A147="Asia","AS",IF(A147="Europe","EU",IF(A147="Africa","AF",IF(A147="Oceania","OC",IF(A147="North America","NA",IF(A147="Antarctica","AN",IF(A147="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -10911,16 +10947,16 @@
         <v>453</v>
       </c>
       <c r="E147" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F147" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G147" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="H147" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -10928,7 +10964,7 @@
         <v>25</v>
       </c>
       <c r="B148" s="7" t="str">
-        <f>IF(A148="Asia","AS",IF(A148="Europe","EU",IF(A148="Africa","AF",IF(A148="Oceania","OC",IF(A148="North America","NA",IF(A148="Antarctica","AN",IF(A148="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -10938,31 +10974,31 @@
         <v>454</v>
       </c>
       <c r="E148" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J148" t="s">
         <v>1096</v>
       </c>
-      <c r="F148" t="s">
+      <c r="K148" t="s">
         <v>1097</v>
       </c>
-      <c r="G148" t="s">
+      <c r="L148" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="M148" t="s">
         <v>1098</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1645</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1099</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K148" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L148" s="7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="M148" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -10970,7 +11006,7 @@
         <v>567</v>
       </c>
       <c r="B149" s="7" t="str">
-        <f>IF(A149="Asia","AS",IF(A149="Europe","EU",IF(A149="Africa","AF",IF(A149="Oceania","OC",IF(A149="North America","NA",IF(A149="Antarctica","AN",IF(A149="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -10980,16 +11016,16 @@
         <v>455</v>
       </c>
       <c r="E149" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F149" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G149" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="H149" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>863</v>
@@ -11001,10 +11037,10 @@
         <v>865</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -11012,7 +11048,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="7" t="str">
-        <f>IF(A150="Asia","AS",IF(A150="Europe","EU",IF(A150="Africa","AF",IF(A150="Oceania","OC",IF(A150="North America","NA",IF(A150="Antarctica","AN",IF(A150="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -11022,31 +11058,31 @@
         <v>456</v>
       </c>
       <c r="E150" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J150" t="s">
         <v>1106</v>
       </c>
-      <c r="F150" t="s">
+      <c r="K150" t="s">
         <v>1107</v>
       </c>
-      <c r="G150" t="s">
+      <c r="L150" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M150" t="s">
         <v>1108</v>
-      </c>
-      <c r="H150" t="s">
-        <v>1647</v>
-      </c>
-      <c r="I150" t="s">
-        <v>1109</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1110</v>
-      </c>
-      <c r="K150" t="s">
-        <v>1111</v>
-      </c>
-      <c r="L150" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="M150" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -11054,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="B151" s="7" t="str">
-        <f>IF(A151="Asia","AS",IF(A151="Europe","EU",IF(A151="Africa","AF",IF(A151="Oceania","OC",IF(A151="North America","NA",IF(A151="Antarctica","AN",IF(A151="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -11064,16 +11100,16 @@
         <v>457</v>
       </c>
       <c r="E151" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F151" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G151" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H151" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -11081,7 +11117,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="7" t="str">
-        <f>IF(A152="Asia","AS",IF(A152="Europe","EU",IF(A152="Africa","AF",IF(A152="Oceania","OC",IF(A152="North America","NA",IF(A152="Antarctica","AN",IF(A152="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -11091,16 +11127,16 @@
         <v>458</v>
       </c>
       <c r="E152" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F152" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="G152" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H152" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>863</v>
@@ -11112,10 +11148,10 @@
         <v>865</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -11123,7 +11159,7 @@
         <v>567</v>
       </c>
       <c r="B153" s="7" t="str">
-        <f>IF(A153="Asia","AS",IF(A153="Europe","EU",IF(A153="Africa","AF",IF(A153="Oceania","OC",IF(A153="North America","NA",IF(A153="Antarctica","AN",IF(A153="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -11133,16 +11169,16 @@
         <v>459</v>
       </c>
       <c r="E153" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F153" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G153" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H153" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -11150,7 +11186,7 @@
         <v>25</v>
       </c>
       <c r="B154" s="7" t="str">
-        <f>IF(A154="Asia","AS",IF(A154="Europe","EU",IF(A154="Africa","AF",IF(A154="Oceania","OC",IF(A154="North America","NA",IF(A154="Antarctica","AN",IF(A154="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -11160,16 +11196,16 @@
         <v>460</v>
       </c>
       <c r="E154" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F154" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G154" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H154" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -11177,7 +11213,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="7" t="str">
-        <f>IF(A155="Asia","AS",IF(A155="Europe","EU",IF(A155="Africa","AF",IF(A155="Oceania","OC",IF(A155="North America","NA",IF(A155="Antarctica","AN",IF(A155="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -11187,31 +11223,31 @@
         <v>461</v>
       </c>
       <c r="E155" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J155" t="s">
         <v>1125</v>
       </c>
-      <c r="F155" t="s">
+      <c r="K155" t="s">
         <v>1126</v>
       </c>
-      <c r="G155" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H155" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I155" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K155" t="s">
-        <v>1130</v>
-      </c>
       <c r="L155" s="7" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -11219,7 +11255,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="7" t="str">
-        <f>IF(A156="Asia","AS",IF(A156="Europe","EU",IF(A156="Africa","AF",IF(A156="Oceania","OC",IF(A156="North America","NA",IF(A156="Antarctica","AN",IF(A156="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -11238,7 +11274,7 @@
         <v>665</v>
       </c>
       <c r="H156" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -11246,7 +11282,7 @@
         <v>15</v>
       </c>
       <c r="B157" s="7" t="str">
-        <f>IF(A157="Asia","AS",IF(A157="Europe","EU",IF(A157="Africa","AF",IF(A157="Oceania","OC",IF(A157="North America","NA",IF(A157="Antarctica","AN",IF(A157="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -11256,16 +11292,16 @@
         <v>463</v>
       </c>
       <c r="E157" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F157" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="G157" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="H157" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -11273,7 +11309,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="7" t="str">
-        <f>IF(A158="Asia","AS",IF(A158="Europe","EU",IF(A158="Africa","AF",IF(A158="Oceania","OC",IF(A158="North America","NA",IF(A158="Antarctica","AN",IF(A158="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -11283,16 +11319,16 @@
         <v>464</v>
       </c>
       <c r="E158" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F158" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G158" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H158" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -11300,7 +11336,7 @@
         <v>567</v>
       </c>
       <c r="B159" s="7" t="str">
-        <f>IF(A159="Asia","AS",IF(A159="Europe","EU",IF(A159="Africa","AF",IF(A159="Oceania","OC",IF(A159="North America","NA",IF(A159="Antarctica","AN",IF(A159="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -11310,16 +11346,16 @@
         <v>465</v>
       </c>
       <c r="E159" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F159" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G159" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H159" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -11327,7 +11363,7 @@
         <v>4</v>
       </c>
       <c r="B160" s="7" t="str">
-        <f>IF(A160="Asia","AS",IF(A160="Europe","EU",IF(A160="Africa","AF",IF(A160="Oceania","OC",IF(A160="North America","NA",IF(A160="Antarctica","AN",IF(A160="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -11337,16 +11373,16 @@
         <v>466</v>
       </c>
       <c r="E160" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F160" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="G160" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="H160" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -11354,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="B161" s="7" t="str">
-        <f>IF(A161="Asia","AS",IF(A161="Europe","EU",IF(A161="Africa","AF",IF(A161="Oceania","OC",IF(A161="North America","NA",IF(A161="Antarctica","AN",IF(A161="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -11364,16 +11400,16 @@
         <v>467</v>
       </c>
       <c r="E161" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F161" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="G161" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="H161" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -11381,7 +11417,7 @@
         <v>15</v>
       </c>
       <c r="B162" s="7" t="str">
-        <f>IF(A162="Asia","AS",IF(A162="Europe","EU",IF(A162="Africa","AF",IF(A162="Oceania","OC",IF(A162="North America","NA",IF(A162="Antarctica","AN",IF(A162="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -11391,31 +11427,31 @@
         <v>468</v>
       </c>
       <c r="E162" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J162" t="s">
         <v>1146</v>
       </c>
-      <c r="F162" t="s">
+      <c r="K162" t="s">
         <v>1147</v>
       </c>
-      <c r="G162" t="s">
+      <c r="L162" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M162" t="s">
         <v>1148</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1149</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1150</v>
-      </c>
-      <c r="K162" t="s">
-        <v>1151</v>
-      </c>
-      <c r="L162" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="M162" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -11423,7 +11459,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="7" t="str">
-        <f>IF(A163="Asia","AS",IF(A163="Europe","EU",IF(A163="Africa","AF",IF(A163="Oceania","OC",IF(A163="North America","NA",IF(A163="Antarctica","AN",IF(A163="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -11433,16 +11469,16 @@
         <v>469</v>
       </c>
       <c r="E163" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F163" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G163" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H163" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -11450,7 +11486,7 @@
         <v>25</v>
       </c>
       <c r="B164" s="7" t="str">
-        <f>IF(A164="Asia","AS",IF(A164="Europe","EU",IF(A164="Africa","AF",IF(A164="Oceania","OC",IF(A164="North America","NA",IF(A164="Antarctica","AN",IF(A164="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -11460,16 +11496,16 @@
         <v>470</v>
       </c>
       <c r="E164" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="F164" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G164" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H164" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -11477,7 +11513,7 @@
         <v>15</v>
       </c>
       <c r="B165" s="7" t="str">
-        <f>IF(A165="Asia","AS",IF(A165="Europe","EU",IF(A165="Africa","AF",IF(A165="Oceania","OC",IF(A165="North America","NA",IF(A165="Antarctica","AN",IF(A165="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -11487,16 +11523,16 @@
         <v>471</v>
       </c>
       <c r="E165" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F165" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G165" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H165" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -11504,7 +11540,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="7" t="str">
-        <f>IF(A166="Asia","AS",IF(A166="Europe","EU",IF(A166="Africa","AF",IF(A166="Oceania","OC",IF(A166="North America","NA",IF(A166="Antarctica","AN",IF(A166="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -11514,31 +11550,31 @@
         <v>472</v>
       </c>
       <c r="E166" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J166" t="s">
         <v>1162</v>
       </c>
-      <c r="F166" t="s">
+      <c r="K166" t="s">
         <v>1163</v>
       </c>
-      <c r="G166" t="s">
+      <c r="L166" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M166" t="s">
         <v>1164</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J166" t="s">
-        <v>1166</v>
-      </c>
-      <c r="K166" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L166" s="7" t="s">
-        <v>1714</v>
-      </c>
-      <c r="M166" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -11546,7 +11582,7 @@
         <v>25</v>
       </c>
       <c r="B167" s="7" t="str">
-        <f>IF(A167="Asia","AS",IF(A167="Europe","EU",IF(A167="Africa","AF",IF(A167="Oceania","OC",IF(A167="North America","NA",IF(A167="Antarctica","AN",IF(A167="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -11556,16 +11592,16 @@
         <v>473</v>
       </c>
       <c r="E167" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F167" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G167" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H167" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="I167" s="7" t="s">
         <v>863</v>
@@ -11577,10 +11613,10 @@
         <v>865</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -11588,7 +11624,7 @@
         <v>25</v>
       </c>
       <c r="B168" s="7" t="str">
-        <f>IF(A168="Asia","AS",IF(A168="Europe","EU",IF(A168="Africa","AF",IF(A168="Oceania","OC",IF(A168="North America","NA",IF(A168="Antarctica","AN",IF(A168="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -11598,16 +11634,16 @@
         <v>474</v>
       </c>
       <c r="E168" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F168" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="G168" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H168" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="I168" t="s">
         <v>613</v>
@@ -11619,10 +11655,10 @@
         <v>71</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="M168" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -11630,7 +11666,7 @@
         <v>567</v>
       </c>
       <c r="B169" s="7" t="str">
-        <f>IF(A169="Asia","AS",IF(A169="Europe","EU",IF(A169="Africa","AF",IF(A169="Oceania","OC",IF(A169="North America","NA",IF(A169="Antarctica","AN",IF(A169="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -11640,16 +11676,16 @@
         <v>475</v>
       </c>
       <c r="E169" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F169" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="G169" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="H169" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -11657,7 +11693,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="7" t="str">
-        <f>IF(A170="Asia","AS",IF(A170="Europe","EU",IF(A170="Africa","AF",IF(A170="Oceania","OC",IF(A170="North America","NA",IF(A170="Antarctica","AN",IF(A170="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -11667,16 +11703,16 @@
         <v>476</v>
       </c>
       <c r="E170" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F170" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G170" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="H170" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -11684,7 +11720,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="7" t="str">
-        <f>IF(A171="Asia","AS",IF(A171="Europe","EU",IF(A171="Africa","AF",IF(A171="Oceania","OC",IF(A171="North America","NA",IF(A171="Antarctica","AN",IF(A171="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AF</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -11694,16 +11730,16 @@
         <v>477</v>
       </c>
       <c r="E171" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="F171" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G171" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="H171" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -11711,7 +11747,7 @@
         <v>25</v>
       </c>
       <c r="B172" s="7" t="str">
-        <f>IF(A172="Asia","AS",IF(A172="Europe","EU",IF(A172="Africa","AF",IF(A172="Oceania","OC",IF(A172="North America","NA",IF(A172="Antarctica","AN",IF(A172="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -11721,16 +11757,16 @@
         <v>478</v>
       </c>
       <c r="E172" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F172" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G172" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="H172" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -11738,7 +11774,7 @@
         <v>25</v>
       </c>
       <c r="B173" s="7" t="str">
-        <f>IF(A173="Asia","AS",IF(A173="Europe","EU",IF(A173="Africa","AF",IF(A173="Oceania","OC",IF(A173="North America","NA",IF(A173="Antarctica","AN",IF(A173="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -11748,16 +11784,16 @@
         <v>479</v>
       </c>
       <c r="E173" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F173" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="G173" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="H173" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -11765,7 +11801,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="7" t="str">
-        <f>IF(A174="Asia","AS",IF(A174="Europe","EU",IF(A174="Africa","AF",IF(A174="Oceania","OC",IF(A174="North America","NA",IF(A174="Antarctica","AN",IF(A174="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -11775,16 +11811,16 @@
         <v>480</v>
       </c>
       <c r="E174" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F174" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G174" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="H174" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -11792,14 +11828,14 @@
         <v>7</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f>IF(A175="Asia","AS",IF(A175="Europe","EU",IF(A175="Africa","AF",IF(A175="Oceania","OC",IF(A175="North America","NA",IF(A175="Antarctica","AN",IF(A175="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="E175" t="s">
         <v>798</v>
@@ -11811,22 +11847,22 @@
         <v>800</v>
       </c>
       <c r="H175" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I175" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="J175" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="K175" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -11834,7 +11870,7 @@
         <v>25</v>
       </c>
       <c r="B176" s="7" t="str">
-        <f>IF(A176="Asia","AS",IF(A176="Europe","EU",IF(A176="Africa","AF",IF(A176="Oceania","OC",IF(A176="North America","NA",IF(A176="Antarctica","AN",IF(A176="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -11844,16 +11880,16 @@
         <v>481</v>
       </c>
       <c r="E176" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F176" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G176" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="H176" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -11861,7 +11897,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="7" t="str">
-        <f>IF(A177="Asia","AS",IF(A177="Europe","EU",IF(A177="Africa","AF",IF(A177="Oceania","OC",IF(A177="North America","NA",IF(A177="Antarctica","AN",IF(A177="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>EU</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -11880,7 +11916,7 @@
         <v>73</v>
       </c>
       <c r="H177" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -11888,7 +11924,7 @@
         <v>15</v>
       </c>
       <c r="B178" s="7" t="str">
-        <f>IF(A178="Asia","AS",IF(A178="Europe","EU",IF(A178="Africa","AF",IF(A178="Oceania","OC",IF(A178="North America","NA",IF(A178="Antarctica","AN",IF(A178="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -11898,16 +11934,16 @@
         <v>483</v>
       </c>
       <c r="E178" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F178" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G178" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H178" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -11915,7 +11951,7 @@
         <v>15</v>
       </c>
       <c r="B179" s="7" t="str">
-        <f>IF(A179="Asia","AS",IF(A179="Europe","EU",IF(A179="Africa","AF",IF(A179="Oceania","OC",IF(A179="North America","NA",IF(A179="Antarctica","AN",IF(A179="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -11925,31 +11961,31 @@
         <v>484</v>
       </c>
       <c r="E179" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J179" t="s">
         <v>1200</v>
       </c>
-      <c r="F179" t="s">
+      <c r="K179" t="s">
         <v>1201</v>
       </c>
-      <c r="G179" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H179" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I179" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J179" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K179" t="s">
-        <v>1205</v>
-      </c>
       <c r="L179" s="7" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -11957,7 +11993,7 @@
         <v>25</v>
       </c>
       <c r="B180" s="7" t="str">
-        <f>IF(A180="Asia","AS",IF(A180="Europe","EU",IF(A180="Africa","AF",IF(A180="Oceania","OC",IF(A180="North America","NA",IF(A180="Antarctica","AN",IF(A180="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -11967,16 +12003,16 @@
         <v>485</v>
       </c>
       <c r="E180" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F180" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G180" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="H180" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -11984,7 +12020,7 @@
         <v>15</v>
       </c>
       <c r="B181" s="7" t="str">
-        <f>IF(A181="Asia","AS",IF(A181="Europe","EU",IF(A181="Africa","AF",IF(A181="Oceania","OC",IF(A181="North America","NA",IF(A181="Antarctica","AN",IF(A181="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -11994,16 +12030,16 @@
         <v>486</v>
       </c>
       <c r="E181" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F181" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G181" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H181" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -12011,7 +12047,7 @@
         <v>567</v>
       </c>
       <c r="B182" s="7" t="str">
-        <f>IF(A182="Asia","AS",IF(A182="Europe","EU",IF(A182="Africa","AF",IF(A182="Oceania","OC",IF(A182="North America","NA",IF(A182="Antarctica","AN",IF(A182="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -12021,16 +12057,16 @@
         <v>487</v>
       </c>
       <c r="E182" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F182" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G182" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="H182" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -12038,7 +12074,7 @@
         <v>25</v>
       </c>
       <c r="B183" s="7" t="str">
-        <f>IF(A183="Asia","AS",IF(A183="Europe","EU",IF(A183="Africa","AF",IF(A183="Oceania","OC",IF(A183="North America","NA",IF(A183="Antarctica","AN",IF(A183="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>OC</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -12048,16 +12084,16 @@
         <v>488</v>
       </c>
       <c r="E183" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F183" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="G183" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="H183" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -12065,7 +12101,7 @@
         <v>565</v>
       </c>
       <c r="B184" s="7" t="str">
-        <f>IF(A184="Asia","AS",IF(A184="Europe","EU",IF(A184="Africa","AF",IF(A184="Oceania","OC",IF(A184="North America","NA",IF(A184="Antarctica","AN",IF(A184="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>SA</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -12075,16 +12111,16 @@
         <v>489</v>
       </c>
       <c r="E184" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F184" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="G184" t="s">
         <v>748</v>
       </c>
       <c r="H184" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -12092,7 +12128,7 @@
         <v>565</v>
       </c>
       <c r="B185" s="7" t="str">
-        <f>IF(A185="Asia","AS",IF(A185="Europe","EU",IF(A185="Africa","AF",IF(A185="Oceania","OC",IF(A185="North America","NA",IF(A185="Antarctica","AN",IF(A185="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>SA</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -12102,31 +12138,31 @@
         <v>490</v>
       </c>
       <c r="E185" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J185" t="s">
         <v>1217</v>
       </c>
-      <c r="F185" t="s">
+      <c r="K185" t="s">
         <v>1218</v>
       </c>
-      <c r="G185" t="s">
-        <v>1219</v>
-      </c>
-      <c r="H185" t="s">
-        <v>1542</v>
-      </c>
-      <c r="I185" t="s">
-        <v>1220</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1221</v>
-      </c>
-      <c r="K185" t="s">
-        <v>1222</v>
-      </c>
       <c r="L185" s="7" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>1063</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -12134,7 +12170,7 @@
         <v>15</v>
       </c>
       <c r="B186" s="7" t="str">
-        <f>IF(A186="Asia","AS",IF(A186="Europe","EU",IF(A186="Africa","AF",IF(A186="Oceania","OC",IF(A186="North America","NA",IF(A186="Antarctica","AN",IF(A186="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="2"/>
         <v>AS</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -12144,16 +12180,16 @@
         <v>491</v>
       </c>
       <c r="E186" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F186" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G186" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="H186" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -12161,7 +12197,7 @@
         <v>25</v>
       </c>
       <c r="B187" s="7" t="str">
-        <f>IF(A187="Asia","AS",IF(A187="Europe","EU",IF(A187="Africa","AF",IF(A187="Oceania","OC",IF(A187="North America","NA",IF(A187="Antarctica","AN",IF(A187="South America","SA",FALSE)))))))</f>
+        <f t="shared" ref="B187:B250" si="3">IF(A187="Asia","AS",IF(A187="Europe","EU",IF(A187="Africa","AF",IF(A187="Oceania","OC",IF(A187="North America","NA",IF(A187="Antarctica","AN",IF(A187="South America","SA",FALSE)))))))</f>
         <v>OC</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -12171,16 +12207,16 @@
         <v>492</v>
       </c>
       <c r="E187" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F187" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G187" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="H187" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -12188,7 +12224,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="7" t="str">
-        <f>IF(A188="Asia","AS",IF(A188="Europe","EU",IF(A188="Africa","AF",IF(A188="Oceania","OC",IF(A188="North America","NA",IF(A188="Antarctica","AN",IF(A188="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -12198,16 +12234,16 @@
         <v>493</v>
       </c>
       <c r="E188" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F188" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G188" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="H188" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -12215,7 +12251,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="7" t="str">
-        <f>IF(A189="Asia","AS",IF(A189="Europe","EU",IF(A189="Africa","AF",IF(A189="Oceania","OC",IF(A189="North America","NA",IF(A189="Antarctica","AN",IF(A189="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -12225,31 +12261,31 @@
         <v>494</v>
       </c>
       <c r="E189" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J189" t="s">
         <v>1232</v>
       </c>
-      <c r="F189" t="s">
+      <c r="K189" t="s">
         <v>1233</v>
       </c>
-      <c r="G189" t="s">
+      <c r="L189" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M189" t="s">
         <v>1234</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L189" s="7" t="s">
-        <v>1586</v>
-      </c>
-      <c r="M189" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -12257,7 +12293,7 @@
         <v>567</v>
       </c>
       <c r="B190" s="7" t="str">
-        <f>IF(A190="Asia","AS",IF(A190="Europe","EU",IF(A190="Africa","AF",IF(A190="Oceania","OC",IF(A190="North America","NA",IF(A190="Antarctica","AN",IF(A190="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -12267,16 +12303,16 @@
         <v>495</v>
       </c>
       <c r="E190" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F190" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="G190" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="H190" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -12284,7 +12320,7 @@
         <v>15</v>
       </c>
       <c r="B191" s="7" t="str">
-        <f>IF(A191="Asia","AS",IF(A191="Europe","EU",IF(A191="Africa","AF",IF(A191="Oceania","OC",IF(A191="North America","NA",IF(A191="Antarctica","AN",IF(A191="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -12294,16 +12330,16 @@
         <v>496</v>
       </c>
       <c r="E191" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F191" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="G191" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="H191" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -12311,7 +12347,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="7" t="str">
-        <f>IF(A192="Asia","AS",IF(A192="Europe","EU",IF(A192="Africa","AF",IF(A192="Oceania","OC",IF(A192="North America","NA",IF(A192="Antarctica","AN",IF(A192="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -12321,16 +12357,16 @@
         <v>497</v>
       </c>
       <c r="E192" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F192" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G192" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="H192" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="I192" s="7" t="s">
         <v>863</v>
@@ -12342,10 +12378,10 @@
         <v>865</v>
       </c>
       <c r="L192" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -12353,7 +12389,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="7" t="str">
-        <f>IF(A193="Asia","AS",IF(A193="Europe","EU",IF(A193="Africa","AF",IF(A193="Oceania","OC",IF(A193="North America","NA",IF(A193="Antarctica","AN",IF(A193="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -12363,16 +12399,16 @@
         <v>498</v>
       </c>
       <c r="E193" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F193" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="G193" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="H193" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -12380,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="7" t="str">
-        <f>IF(A194="Asia","AS",IF(A194="Europe","EU",IF(A194="Africa","AF",IF(A194="Oceania","OC",IF(A194="North America","NA",IF(A194="Antarctica","AN",IF(A194="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -12390,16 +12426,16 @@
         <v>499</v>
       </c>
       <c r="E194" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F194" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="G194" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="H194" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -12407,7 +12443,7 @@
         <v>4</v>
       </c>
       <c r="B195" s="7" t="str">
-        <f>IF(A195="Asia","AS",IF(A195="Europe","EU",IF(A195="Africa","AF",IF(A195="Oceania","OC",IF(A195="North America","NA",IF(A195="Antarctica","AN",IF(A195="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -12417,16 +12453,16 @@
         <v>500</v>
       </c>
       <c r="E195" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="F195" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="G195" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="H195" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -12434,26 +12470,26 @@
         <v>567</v>
       </c>
       <c r="B196" s="7" t="str">
-        <f>IF(A196="Asia","AS",IF(A196="Europe","EU",IF(A196="Africa","AF",IF(A196="Oceania","OC",IF(A196="North America","NA",IF(A196="Antarctica","AN",IF(A196="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>501</v>
       </c>
       <c r="E196" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F196" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="G196" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="H196" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="I196" s="7" t="s">
         <v>863</v>
@@ -12465,10 +12501,10 @@
         <v>865</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M196" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -12476,7 +12512,7 @@
         <v>4</v>
       </c>
       <c r="B197" s="7" t="str">
-        <f>IF(A197="Asia","AS",IF(A197="Europe","EU",IF(A197="Africa","AF",IF(A197="Oceania","OC",IF(A197="North America","NA",IF(A197="Antarctica","AN",IF(A197="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -12486,16 +12522,16 @@
         <v>502</v>
       </c>
       <c r="E197" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F197" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="G197" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="H197" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -12503,7 +12539,7 @@
         <v>567</v>
       </c>
       <c r="B198" s="7" t="str">
-        <f>IF(A198="Asia","AS",IF(A198="Europe","EU",IF(A198="Africa","AF",IF(A198="Oceania","OC",IF(A198="North America","NA",IF(A198="Antarctica","AN",IF(A198="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -12513,16 +12549,16 @@
         <v>503</v>
       </c>
       <c r="E198" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F198" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G198" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="H198" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -12530,7 +12566,7 @@
         <v>567</v>
       </c>
       <c r="B199" s="7" t="str">
-        <f>IF(A199="Asia","AS",IF(A199="Europe","EU",IF(A199="Africa","AF",IF(A199="Oceania","OC",IF(A199="North America","NA",IF(A199="Antarctica","AN",IF(A199="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -12540,31 +12576,31 @@
         <v>504</v>
       </c>
       <c r="E199" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J199" t="s">
         <v>1266</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="K199" t="s">
         <v>1267</v>
       </c>
-      <c r="G199" s="7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K199" t="s">
-        <v>1271</v>
-      </c>
       <c r="L199" s="7" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="M199" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -12572,7 +12608,7 @@
         <v>567</v>
       </c>
       <c r="B200" s="7" t="str">
-        <f>IF(A200="Asia","AS",IF(A200="Europe","EU",IF(A200="Africa","AF",IF(A200="Oceania","OC",IF(A200="North America","NA",IF(A200="Antarctica","AN",IF(A200="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -12591,7 +12627,7 @@
         <v>865</v>
       </c>
       <c r="H200" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -12599,7 +12635,7 @@
         <v>567</v>
       </c>
       <c r="B201" s="7" t="str">
-        <f>IF(A201="Asia","AS",IF(A201="Europe","EU",IF(A201="Africa","AF",IF(A201="Oceania","OC",IF(A201="North America","NA",IF(A201="Antarctica","AN",IF(A201="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -12609,16 +12645,16 @@
         <v>506</v>
       </c>
       <c r="E201" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F201" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="G201" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H201" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="I201" s="7" t="s">
         <v>863</v>
@@ -12630,10 +12666,10 @@
         <v>865</v>
       </c>
       <c r="L201" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M201" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -12641,7 +12677,7 @@
         <v>567</v>
       </c>
       <c r="B202" s="7" t="str">
-        <f>IF(A202="Asia","AS",IF(A202="Europe","EU",IF(A202="Africa","AF",IF(A202="Oceania","OC",IF(A202="North America","NA",IF(A202="Antarctica","AN",IF(A202="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -12651,16 +12687,16 @@
         <v>507</v>
       </c>
       <c r="E202" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F202" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="G202" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="H202" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -12668,7 +12704,7 @@
         <v>25</v>
       </c>
       <c r="B203" s="7" t="str">
-        <f>IF(A203="Asia","AS",IF(A203="Europe","EU",IF(A203="Africa","AF",IF(A203="Oceania","OC",IF(A203="North America","NA",IF(A203="Antarctica","AN",IF(A203="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -12678,16 +12714,16 @@
         <v>508</v>
       </c>
       <c r="E203" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="F203" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="G203" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="H203" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -12695,7 +12731,7 @@
         <v>7</v>
       </c>
       <c r="B204" s="7" t="str">
-        <f>IF(A204="Asia","AS",IF(A204="Europe","EU",IF(A204="Africa","AF",IF(A204="Oceania","OC",IF(A204="North America","NA",IF(A204="Antarctica","AN",IF(A204="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -12705,16 +12741,16 @@
         <v>509</v>
       </c>
       <c r="E204" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G204" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="H204" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -12722,7 +12758,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="7" t="str">
-        <f>IF(A205="Asia","AS",IF(A205="Europe","EU",IF(A205="Africa","AF",IF(A205="Oceania","OC",IF(A205="North America","NA",IF(A205="Antarctica","AN",IF(A205="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -12732,16 +12768,16 @@
         <v>510</v>
       </c>
       <c r="E205" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="F205" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="G205" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="H205" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -12749,7 +12785,7 @@
         <v>15</v>
       </c>
       <c r="B206" s="7" t="str">
-        <f>IF(A206="Asia","AS",IF(A206="Europe","EU",IF(A206="Africa","AF",IF(A206="Oceania","OC",IF(A206="North America","NA",IF(A206="Antarctica","AN",IF(A206="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -12759,16 +12795,16 @@
         <v>511</v>
       </c>
       <c r="E206" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="F206" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G206" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="H206" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -12776,26 +12812,26 @@
         <v>7</v>
       </c>
       <c r="B207" s="7" t="str">
-        <f>IF(A207="Asia","AS",IF(A207="Europe","EU",IF(A207="Africa","AF",IF(A207="Oceania","OC",IF(A207="North America","NA",IF(A207="Antarctica","AN",IF(A207="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="E207" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="F207" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="G207" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="H207" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -12803,7 +12839,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="7" t="str">
-        <f>IF(A208="Asia","AS",IF(A208="Europe","EU",IF(A208="Africa","AF",IF(A208="Oceania","OC",IF(A208="North America","NA",IF(A208="Antarctica","AN",IF(A208="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -12813,16 +12849,16 @@
         <v>512</v>
       </c>
       <c r="E208" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F208" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G208" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="H208" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -12830,7 +12866,7 @@
         <v>7</v>
       </c>
       <c r="B209" s="7" t="str">
-        <f>IF(A209="Asia","AS",IF(A209="Europe","EU",IF(A209="Africa","AF",IF(A209="Oceania","OC",IF(A209="North America","NA",IF(A209="Antarctica","AN",IF(A209="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -12840,16 +12876,16 @@
         <v>513</v>
       </c>
       <c r="E209" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F209" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G209" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="H209" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -12857,7 +12893,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="7" t="str">
-        <f>IF(A210="Asia","AS",IF(A210="Europe","EU",IF(A210="Africa","AF",IF(A210="Oceania","OC",IF(A210="North America","NA",IF(A210="Antarctica","AN",IF(A210="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -12867,16 +12903,16 @@
         <v>514</v>
       </c>
       <c r="E210" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F210" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G210" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="H210" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -12884,7 +12920,7 @@
         <v>4</v>
       </c>
       <c r="B211" s="7" t="str">
-        <f>IF(A211="Asia","AS",IF(A211="Europe","EU",IF(A211="Africa","AF",IF(A211="Oceania","OC",IF(A211="North America","NA",IF(A211="Antarctica","AN",IF(A211="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -12894,31 +12930,31 @@
         <v>515</v>
       </c>
       <c r="E211" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J211" t="s">
         <v>1299</v>
       </c>
-      <c r="F211" t="s">
+      <c r="K211" t="s">
         <v>1300</v>
       </c>
-      <c r="G211" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I211" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K211" t="s">
-        <v>1304</v>
-      </c>
       <c r="L211" s="7" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>1305</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -12926,7 +12962,7 @@
         <v>15</v>
       </c>
       <c r="B212" s="7" t="str">
-        <f>IF(A212="Asia","AS",IF(A212="Europe","EU",IF(A212="Africa","AF",IF(A212="Oceania","OC",IF(A212="North America","NA",IF(A212="Antarctica","AN",IF(A212="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -12945,22 +12981,22 @@
         <v>656</v>
       </c>
       <c r="H212" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I212" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="J212" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="K212" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12968,7 +13004,7 @@
         <v>567</v>
       </c>
       <c r="B213" s="7" t="str">
-        <f>IF(A213="Asia","AS",IF(A213="Europe","EU",IF(A213="Africa","AF",IF(A213="Oceania","OC",IF(A213="North America","NA",IF(A213="Antarctica","AN",IF(A213="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -12978,28 +13014,28 @@
         <v>517</v>
       </c>
       <c r="E213" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K213" t="s">
         <v>1309</v>
       </c>
-      <c r="F213" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G213" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H213" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1312</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1313</v>
-      </c>
-      <c r="K213" t="s">
-        <v>1314</v>
-      </c>
       <c r="L213" s="7" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="M213" s="7" t="s">
         <v>649</v>
@@ -13010,7 +13046,7 @@
         <v>7</v>
       </c>
       <c r="B214" s="7" t="str">
-        <f>IF(A214="Asia","AS",IF(A214="Europe","EU",IF(A214="Africa","AF",IF(A214="Oceania","OC",IF(A214="North America","NA",IF(A214="Antarctica","AN",IF(A214="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -13020,16 +13056,16 @@
         <v>518</v>
       </c>
       <c r="E214" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="F214" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="G214" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="H214" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -13037,7 +13073,7 @@
         <v>7</v>
       </c>
       <c r="B215" s="7" t="str">
-        <f>IF(A215="Asia","AS",IF(A215="Europe","EU",IF(A215="Africa","AF",IF(A215="Oceania","OC",IF(A215="North America","NA",IF(A215="Antarctica","AN",IF(A215="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -13047,31 +13083,31 @@
         <v>519</v>
       </c>
       <c r="E215" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K215" t="s">
         <v>1318</v>
       </c>
-      <c r="F215" t="s">
-        <v>1319</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H215" t="s">
-        <v>1694</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K215" t="s">
-        <v>1323</v>
-      </c>
       <c r="L215" s="7" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="M215" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -13079,7 +13115,7 @@
         <v>25</v>
       </c>
       <c r="B216" s="7" t="str">
-        <f>IF(A216="Asia","AS",IF(A216="Europe","EU",IF(A216="Africa","AF",IF(A216="Oceania","OC",IF(A216="North America","NA",IF(A216="Antarctica","AN",IF(A216="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -13089,16 +13125,16 @@
         <v>520</v>
       </c>
       <c r="E216" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="F216" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="G216" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="H216" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -13106,7 +13142,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="7" t="str">
-        <f>IF(A217="Asia","AS",IF(A217="Europe","EU",IF(A217="Africa","AF",IF(A217="Oceania","OC",IF(A217="North America","NA",IF(A217="Antarctica","AN",IF(A217="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -13116,16 +13152,16 @@
         <v>521</v>
       </c>
       <c r="E217" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="F217" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="G217" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="H217" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -13133,7 +13169,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="7" t="str">
-        <f>IF(A218="Asia","AS",IF(A218="Europe","EU",IF(A218="Africa","AF",IF(A218="Oceania","OC",IF(A218="North America","NA",IF(A218="Antarctica","AN",IF(A218="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -13143,31 +13179,31 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K218" t="s">
         <v>1330</v>
       </c>
-      <c r="F218" t="s">
+      <c r="L218" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="M218" t="s">
         <v>1331</v>
-      </c>
-      <c r="G218" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1697</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1334</v>
-      </c>
-      <c r="K218" t="s">
-        <v>1335</v>
-      </c>
-      <c r="L218" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="M218" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -13175,7 +13211,7 @@
         <v>565</v>
       </c>
       <c r="B219" s="7" t="str">
-        <f>IF(A219="Asia","AS",IF(A219="Europe","EU",IF(A219="Africa","AF",IF(A219="Oceania","OC",IF(A219="North America","NA",IF(A219="Antarctica","AN",IF(A219="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>SA</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -13185,16 +13221,16 @@
         <v>523</v>
       </c>
       <c r="E219" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="F219" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="G219" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="H219" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -13202,7 +13238,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="7" t="str">
-        <f>IF(A220="Asia","AS",IF(A220="Europe","EU",IF(A220="Africa","AF",IF(A220="Oceania","OC",IF(A220="North America","NA",IF(A220="Antarctica","AN",IF(A220="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -13212,16 +13248,16 @@
         <v>524</v>
       </c>
       <c r="E220" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F220" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="G220" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="H220" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -13229,7 +13265,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="7" t="str">
-        <f>IF(A221="Asia","AS",IF(A221="Europe","EU",IF(A221="Africa","AF",IF(A221="Oceania","OC",IF(A221="North America","NA",IF(A221="Antarctica","AN",IF(A221="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -13239,16 +13275,16 @@
         <v>525</v>
       </c>
       <c r="E221" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="F221" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="G221" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="H221" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -13256,7 +13292,7 @@
         <v>15</v>
       </c>
       <c r="B222" s="7" t="str">
-        <f>IF(A222="Asia","AS",IF(A222="Europe","EU",IF(A222="Africa","AF",IF(A222="Oceania","OC",IF(A222="North America","NA",IF(A222="Antarctica","AN",IF(A222="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -13266,31 +13302,31 @@
         <v>526</v>
       </c>
       <c r="E222" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K222" t="s">
         <v>1346</v>
       </c>
-      <c r="F222" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H222" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J222" t="s">
-        <v>1350</v>
-      </c>
-      <c r="K222" t="s">
-        <v>1351</v>
-      </c>
       <c r="L222" s="7" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>1354</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -13298,7 +13334,7 @@
         <v>4</v>
       </c>
       <c r="B223" s="7" t="str">
-        <f>IF(A223="Asia","AS",IF(A223="Europe","EU",IF(A223="Africa","AF",IF(A223="Oceania","OC",IF(A223="North America","NA",IF(A223="Antarctica","AN",IF(A223="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -13308,16 +13344,16 @@
         <v>527</v>
       </c>
       <c r="E223" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="F223" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="G223" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="H223" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -13325,7 +13361,7 @@
         <v>565</v>
       </c>
       <c r="B224" s="7" t="str">
-        <f>IF(A224="Asia","AS",IF(A224="Europe","EU",IF(A224="Africa","AF",IF(A224="Oceania","OC",IF(A224="North America","NA",IF(A224="Antarctica","AN",IF(A224="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>SA</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -13335,16 +13371,16 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F224" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G224" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="H224" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -13352,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="B225" s="7" t="str">
-        <f>IF(A225="Asia","AS",IF(A225="Europe","EU",IF(A225="Africa","AF",IF(A225="Oceania","OC",IF(A225="North America","NA",IF(A225="Antarctica","AN",IF(A225="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -13371,7 +13407,7 @@
         <v>73</v>
       </c>
       <c r="H225" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -13379,7 +13415,7 @@
         <v>7</v>
       </c>
       <c r="B226" s="7" t="str">
-        <f>IF(A226="Asia","AS",IF(A226="Europe","EU",IF(A226="Africa","AF",IF(A226="Oceania","OC",IF(A226="North America","NA",IF(A226="Antarctica","AN",IF(A226="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -13389,16 +13425,16 @@
         <v>530</v>
       </c>
       <c r="E226" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="F226" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G226" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="H226" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -13406,7 +13442,7 @@
         <v>7</v>
       </c>
       <c r="B227" s="7" t="str">
-        <f>IF(A227="Asia","AS",IF(A227="Europe","EU",IF(A227="Africa","AF",IF(A227="Oceania","OC",IF(A227="North America","NA",IF(A227="Antarctica","AN",IF(A227="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -13425,7 +13461,7 @@
         <v>878</v>
       </c>
       <c r="H227" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -13433,7 +13469,7 @@
         <v>15</v>
       </c>
       <c r="B228" s="7" t="str">
-        <f>IF(A228="Asia","AS",IF(A228="Europe","EU",IF(A228="Africa","AF",IF(A228="Oceania","OC",IF(A228="North America","NA",IF(A228="Antarctica","AN",IF(A228="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -13443,16 +13479,16 @@
         <v>532</v>
       </c>
       <c r="E228" t="s">
+        <v>964</v>
+      </c>
+      <c r="F228" t="s">
+        <v>965</v>
+      </c>
+      <c r="G228" t="s">
         <v>966</v>
       </c>
-      <c r="F228" t="s">
-        <v>967</v>
-      </c>
-      <c r="G228" t="s">
-        <v>968</v>
-      </c>
       <c r="H228" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -13460,7 +13496,7 @@
         <v>15</v>
       </c>
       <c r="B229" s="7" t="str">
-        <f>IF(A229="Asia","AS",IF(A229="Europe","EU",IF(A229="Africa","AF",IF(A229="Oceania","OC",IF(A229="North America","NA",IF(A229="Antarctica","AN",IF(A229="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -13470,31 +13506,31 @@
         <v>533</v>
       </c>
       <c r="E229" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="F229" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="G229" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="H229" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="I229" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="J229" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="K229" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="M229" t="s">
-        <v>1380</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -13502,7 +13538,7 @@
         <v>15</v>
       </c>
       <c r="B230" s="7" t="str">
-        <f>IF(A230="Asia","AS",IF(A230="Europe","EU",IF(A230="Africa","AF",IF(A230="Oceania","OC",IF(A230="North America","NA",IF(A230="Antarctica","AN",IF(A230="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -13512,16 +13548,16 @@
         <v>534</v>
       </c>
       <c r="E230" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="F230" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="G230" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="H230" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -13529,7 +13565,7 @@
         <v>4</v>
       </c>
       <c r="B231" s="7" t="str">
-        <f>IF(A231="Asia","AS",IF(A231="Europe","EU",IF(A231="Africa","AF",IF(A231="Oceania","OC",IF(A231="North America","NA",IF(A231="Antarctica","AN",IF(A231="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -13539,16 +13575,16 @@
         <v>535</v>
       </c>
       <c r="E231" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="F231" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="G231" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="H231" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -13556,7 +13592,7 @@
         <v>15</v>
       </c>
       <c r="B232" s="7" t="str">
-        <f>IF(A232="Asia","AS",IF(A232="Europe","EU",IF(A232="Africa","AF",IF(A232="Oceania","OC",IF(A232="North America","NA",IF(A232="Antarctica","AN",IF(A232="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -13566,31 +13602,31 @@
         <v>536</v>
       </c>
       <c r="E232" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="F232" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="G232" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="H232" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="I232" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="J232" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="K232" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="M232" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -13598,26 +13634,26 @@
         <v>15</v>
       </c>
       <c r="B233" s="7" t="str">
-        <f>IF(A233="Asia","AS",IF(A233="Europe","EU",IF(A233="Africa","AF",IF(A233="Oceania","OC",IF(A233="North America","NA",IF(A233="Antarctica","AN",IF(A233="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="E233" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="F233" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="G233" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="H233" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -13625,7 +13661,7 @@
         <v>15</v>
       </c>
       <c r="B234" s="7" t="str">
-        <f>IF(A234="Asia","AS",IF(A234="Europe","EU",IF(A234="Africa","AF",IF(A234="Oceania","OC",IF(A234="North America","NA",IF(A234="Antarctica","AN",IF(A234="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -13635,16 +13671,16 @@
         <v>537</v>
       </c>
       <c r="E234" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="F234" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="G234" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="H234" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -13652,7 +13688,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="7" t="str">
-        <f>IF(A235="Asia","AS",IF(A235="Europe","EU",IF(A235="Africa","AF",IF(A235="Oceania","OC",IF(A235="North America","NA",IF(A235="Antarctica","AN",IF(A235="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -13662,16 +13698,16 @@
         <v>538</v>
       </c>
       <c r="E235" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="F235" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="G235" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="H235" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -13679,7 +13715,7 @@
         <v>25</v>
       </c>
       <c r="B236" s="7" t="str">
-        <f>IF(A236="Asia","AS",IF(A236="Europe","EU",IF(A236="Africa","AF",IF(A236="Oceania","OC",IF(A236="North America","NA",IF(A236="Antarctica","AN",IF(A236="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -13689,16 +13725,16 @@
         <v>539</v>
       </c>
       <c r="E236" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="F236" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="G236" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="H236" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -13706,7 +13742,7 @@
         <v>25</v>
       </c>
       <c r="B237" s="7" t="str">
-        <f>IF(A237="Asia","AS",IF(A237="Europe","EU",IF(A237="Africa","AF",IF(A237="Oceania","OC",IF(A237="North America","NA",IF(A237="Antarctica","AN",IF(A237="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -13716,16 +13752,16 @@
         <v>540</v>
       </c>
       <c r="E237" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="F237" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="G237" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="H237" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -13733,7 +13769,7 @@
         <v>567</v>
       </c>
       <c r="B238" s="7" t="str">
-        <f>IF(A238="Asia","AS",IF(A238="Europe","EU",IF(A238="Africa","AF",IF(A238="Oceania","OC",IF(A238="North America","NA",IF(A238="Antarctica","AN",IF(A238="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -13743,16 +13779,16 @@
         <v>541</v>
       </c>
       <c r="E238" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="F238" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="G238" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="H238" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -13760,7 +13796,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="7" t="str">
-        <f>IF(A239="Asia","AS",IF(A239="Europe","EU",IF(A239="Africa","AF",IF(A239="Oceania","OC",IF(A239="North America","NA",IF(A239="Antarctica","AN",IF(A239="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -13770,16 +13806,16 @@
         <v>542</v>
       </c>
       <c r="E239" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="F239" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="G239" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="H239" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -13787,7 +13823,7 @@
         <v>15</v>
       </c>
       <c r="B240" s="7" t="str">
-        <f>IF(A240="Asia","AS",IF(A240="Europe","EU",IF(A240="Africa","AF",IF(A240="Oceania","OC",IF(A240="North America","NA",IF(A240="Antarctica","AN",IF(A240="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -13797,31 +13833,31 @@
         <v>543</v>
       </c>
       <c r="E240" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="F240" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G240" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="H240" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="I240" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="J240" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="K240" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="M240" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -13829,7 +13865,7 @@
         <v>15</v>
       </c>
       <c r="B241" s="7" t="str">
-        <f>IF(A241="Asia","AS",IF(A241="Europe","EU",IF(A241="Africa","AF",IF(A241="Oceania","OC",IF(A241="North America","NA",IF(A241="Antarctica","AN",IF(A241="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -13839,31 +13875,31 @@
         <v>544</v>
       </c>
       <c r="E241" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="F241" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="G241" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="H241" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="I241" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="J241" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="K241" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="L241" s="7" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="M241" s="7" t="s">
-        <v>1424</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -13871,7 +13907,7 @@
         <v>567</v>
       </c>
       <c r="B242" s="7" t="str">
-        <f>IF(A242="Asia","AS",IF(A242="Europe","EU",IF(A242="Africa","AF",IF(A242="Oceania","OC",IF(A242="North America","NA",IF(A242="Antarctica","AN",IF(A242="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -13881,31 +13917,31 @@
         <v>545</v>
       </c>
       <c r="E242" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="F242" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="G242" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="H242" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="I242" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="J242" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="K242" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L242" s="7" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="M242" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -13913,7 +13949,7 @@
         <v>25</v>
       </c>
       <c r="B243" s="7" t="str">
-        <f>IF(A243="Asia","AS",IF(A243="Europe","EU",IF(A243="Africa","AF",IF(A243="Oceania","OC",IF(A243="North America","NA",IF(A243="Antarctica","AN",IF(A243="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -13923,31 +13959,31 @@
         <v>546</v>
       </c>
       <c r="E243" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="F243" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="G243" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="H243" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="I243" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="J243" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="K243" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="L243" s="7" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="M243" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -13955,7 +13991,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="7" t="str">
-        <f>IF(A244="Asia","AS",IF(A244="Europe","EU",IF(A244="Africa","AF",IF(A244="Oceania","OC",IF(A244="North America","NA",IF(A244="Antarctica","AN",IF(A244="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AF</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -13965,16 +14001,16 @@
         <v>547</v>
       </c>
       <c r="E244" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="F244" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G244" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="H244" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -13982,7 +14018,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="7" t="str">
-        <f>IF(A245="Asia","AS",IF(A245="Europe","EU",IF(A245="Africa","AF",IF(A245="Oceania","OC",IF(A245="North America","NA",IF(A245="Antarctica","AN",IF(A245="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -13992,16 +14028,16 @@
         <v>548</v>
       </c>
       <c r="E245" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="F245" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G245" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="H245" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -14009,7 +14045,7 @@
         <v>15</v>
       </c>
       <c r="B246" s="7" t="str">
-        <f>IF(A246="Asia","AS",IF(A246="Europe","EU",IF(A246="Africa","AF",IF(A246="Oceania","OC",IF(A246="North America","NA",IF(A246="Antarctica","AN",IF(A246="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -14019,16 +14055,16 @@
         <v>549</v>
       </c>
       <c r="E246" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="F246" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G246" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="H246" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -14036,7 +14072,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="7" t="str">
-        <f>IF(A247="Asia","AS",IF(A247="Europe","EU",IF(A247="Africa","AF",IF(A247="Oceania","OC",IF(A247="North America","NA",IF(A247="Antarctica","AN",IF(A247="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>EU</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -14046,31 +14082,31 @@
         <v>550</v>
       </c>
       <c r="E247" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="F247" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G247" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="H247" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="I247" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="J247" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="K247" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="L247" s="7" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="M247" s="7" t="s">
-        <v>885</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -14078,7 +14114,7 @@
         <v>567</v>
       </c>
       <c r="B248" s="7" t="str">
-        <f>IF(A248="Asia","AS",IF(A248="Europe","EU",IF(A248="Africa","AF",IF(A248="Oceania","OC",IF(A248="North America","NA",IF(A248="Antarctica","AN",IF(A248="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -14088,16 +14124,16 @@
         <v>551</v>
       </c>
       <c r="E248" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="F248" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="G248" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="H248" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -14105,7 +14141,7 @@
         <v>25</v>
       </c>
       <c r="B249" s="7" t="str">
-        <f>IF(A249="Asia","AS",IF(A249="Europe","EU",IF(A249="Africa","AF",IF(A249="Oceania","OC",IF(A249="North America","NA",IF(A249="Antarctica","AN",IF(A249="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>OC</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -14115,16 +14151,16 @@
         <v>552</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="H249" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -14132,7 +14168,7 @@
         <v>565</v>
       </c>
       <c r="B250" s="7" t="str">
-        <f>IF(A250="Asia","AS",IF(A250="Europe","EU",IF(A250="Africa","AF",IF(A250="Oceania","OC",IF(A250="North America","NA",IF(A250="Antarctica","AN",IF(A250="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="3"/>
         <v>SA</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -14142,28 +14178,28 @@
         <v>553</v>
       </c>
       <c r="E250" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="F250" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="G250" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="H250" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="I250" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="J250" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="K250" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="M250" s="7" t="s">
         <v>589</v>
@@ -14174,7 +14210,7 @@
         <v>15</v>
       </c>
       <c r="B251" s="7" t="str">
-        <f>IF(A251="Asia","AS",IF(A251="Europe","EU",IF(A251="Africa","AF",IF(A251="Oceania","OC",IF(A251="North America","NA",IF(A251="Antarctica","AN",IF(A251="South America","SA",FALSE)))))))</f>
+        <f t="shared" ref="B251:B262" si="4">IF(A251="Asia","AS",IF(A251="Europe","EU",IF(A251="Africa","AF",IF(A251="Oceania","OC",IF(A251="North America","NA",IF(A251="Antarctica","AN",IF(A251="South America","SA",FALSE)))))))</f>
         <v>AS</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -14184,16 +14220,16 @@
         <v>554</v>
       </c>
       <c r="E251" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="F251" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="G251" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="H251" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -14201,7 +14237,7 @@
         <v>25</v>
       </c>
       <c r="B252" s="7" t="str">
-        <f>IF(A252="Asia","AS",IF(A252="Europe","EU",IF(A252="Africa","AF",IF(A252="Oceania","OC",IF(A252="North America","NA",IF(A252="Antarctica","AN",IF(A252="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>OC</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -14211,16 +14247,16 @@
         <v>555</v>
       </c>
       <c r="E252" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="F252" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G252" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="H252" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -14228,7 +14264,7 @@
         <v>565</v>
       </c>
       <c r="B253" s="7" t="str">
-        <f>IF(A253="Asia","AS",IF(A253="Europe","EU",IF(A253="Africa","AF",IF(A253="Oceania","OC",IF(A253="North America","NA",IF(A253="Antarctica","AN",IF(A253="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>SA</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -14238,31 +14274,31 @@
         <v>556</v>
       </c>
       <c r="E253" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="F253" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="G253" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="H253" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="I253" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="J253" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="K253" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -14270,26 +14306,26 @@
         <v>15</v>
       </c>
       <c r="B254" s="7" t="str">
-        <f>IF(A254="Asia","AS",IF(A254="Europe","EU",IF(A254="Africa","AF",IF(A254="Oceania","OC",IF(A254="North America","NA",IF(A254="Antarctica","AN",IF(A254="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>AS</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>557</v>
       </c>
       <c r="E254" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="F254" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="G254" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="H254" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="I254" s="7" t="s">
         <v>616</v>
@@ -14301,10 +14337,10 @@
         <v>74</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="M254" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -14312,7 +14348,7 @@
         <v>567</v>
       </c>
       <c r="B255" s="7" t="str">
-        <f>IF(A255="Asia","AS",IF(A255="Europe","EU",IF(A255="Africa","AF",IF(A255="Oceania","OC",IF(A255="North America","NA",IF(A255="Antarctica","AN",IF(A255="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -14322,16 +14358,16 @@
         <v>558</v>
       </c>
       <c r="E255" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="F255" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="G255" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="H255" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -14339,7 +14375,7 @@
         <v>567</v>
       </c>
       <c r="B256" s="7" t="str">
-        <f>IF(A256="Asia","AS",IF(A256="Europe","EU",IF(A256="Africa","AF",IF(A256="Oceania","OC",IF(A256="North America","NA",IF(A256="Antarctica","AN",IF(A256="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -14349,31 +14385,31 @@
         <v>559</v>
       </c>
       <c r="E256" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="F256" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="G256" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="H256" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="I256" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J256" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="K256" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>589</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -14381,26 +14417,26 @@
         <v>7</v>
       </c>
       <c r="B257" s="7" t="str">
-        <f>IF(A257="Asia","AS",IF(A257="Europe","EU",IF(A257="Africa","AF",IF(A257="Oceania","OC",IF(A257="North America","NA",IF(A257="Antarctica","AN",IF(A257="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>EU</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="E257" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="F257" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="G257" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="H257" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -14408,7 +14444,7 @@
         <v>25</v>
       </c>
       <c r="B258" s="7" t="str">
-        <f>IF(A258="Asia","AS",IF(A258="Europe","EU",IF(A258="Africa","AF",IF(A258="Oceania","OC",IF(A258="North America","NA",IF(A258="Antarctica","AN",IF(A258="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>OC</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -14418,16 +14454,16 @@
         <v>560</v>
       </c>
       <c r="E258" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="F258" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="G258" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="H258" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I258" s="7" t="s">
         <v>863</v>
@@ -14439,10 +14475,10 @@
         <v>865</v>
       </c>
       <c r="L258" s="7" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -14450,7 +14486,7 @@
         <v>4</v>
       </c>
       <c r="B259" s="7" t="str">
-        <f>IF(A259="Asia","AS",IF(A259="Europe","EU",IF(A259="Africa","AF",IF(A259="Oceania","OC",IF(A259="North America","NA",IF(A259="Antarctica","AN",IF(A259="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>AF</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -14460,16 +14496,16 @@
         <v>561</v>
       </c>
       <c r="E259" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="F259" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="G259" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="H259" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -14477,7 +14513,7 @@
         <v>15</v>
       </c>
       <c r="B260" s="7" t="str">
-        <f>IF(A260="Asia","AS",IF(A260="Europe","EU",IF(A260="Africa","AF",IF(A260="Oceania","OC",IF(A260="North America","NA",IF(A260="Antarctica","AN",IF(A260="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>AS</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -14496,7 +14532,7 @@
         <v>821</v>
       </c>
       <c r="H260" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -14504,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="7" t="str">
-        <f>IF(A261="Asia","AS",IF(A261="Europe","EU",IF(A261="Africa","AF",IF(A261="Oceania","OC",IF(A261="North America","NA",IF(A261="Antarctica","AN",IF(A261="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>AF</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -14514,16 +14550,16 @@
         <v>563</v>
       </c>
       <c r="E261" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="F261" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="G261" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="H261" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -14531,7 +14567,7 @@
         <v>4</v>
       </c>
       <c r="B262" s="7" t="str">
-        <f>IF(A262="Asia","AS",IF(A262="Europe","EU",IF(A262="Africa","AF",IF(A262="Oceania","OC",IF(A262="North America","NA",IF(A262="Antarctica","AN",IF(A262="South America","SA",FALSE)))))))</f>
+        <f t="shared" si="4"/>
         <v>AF</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -14541,16 +14577,16 @@
         <v>564</v>
       </c>
       <c r="E262" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="F262" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="G262" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="H262" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
